--- a/static/SDM_dosen_pns.xlsx
+++ b/static/SDM_dosen_pns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156B156-6CAA-46A4-B89A-A6426533A048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F80945C-2308-4B82-86D1-EDE94822E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="1334">
   <si>
     <t>NIP</t>
   </si>
@@ -1869,9 +1869,6 @@
   </si>
   <si>
     <t>Gizi</t>
-  </si>
-  <si>
-    <t>Tendik PNS</t>
   </si>
   <si>
     <t>A197312302001121001</t>
@@ -4873,7 +4870,7 @@
   <dimension ref="A1:M620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L2" sqref="L2:L620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4927,7 +4924,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" t="s">
         <v>157</v>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s">
         <v>459</v>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B4" t="s">
         <v>466</v>
@@ -5047,7 +5044,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B5" t="s">
         <v>467</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B6" t="s">
         <v>468</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B7" t="s">
         <v>469</v>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B8" t="s">
         <v>462</v>
@@ -5207,7 +5204,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s">
         <v>470</v>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B10" t="s">
         <v>471</v>
@@ -5287,7 +5284,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B11" t="s">
         <v>176</v>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
         <v>218</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s">
         <v>179</v>
@@ -5407,7 +5404,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B14" t="s">
         <v>219</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B15" t="s">
         <v>180</v>
@@ -5487,7 +5484,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -5527,7 +5524,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B17" t="s">
         <v>220</v>
@@ -5567,7 +5564,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B18" t="s">
         <v>182</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B19" t="s">
         <v>183</v>
@@ -5647,7 +5644,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
         <v>221</v>
@@ -5687,7 +5684,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B21" t="s">
         <v>184</v>
@@ -5727,7 +5724,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B22" t="s">
         <v>194</v>
@@ -5767,7 +5764,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
@@ -5807,7 +5804,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B24" t="s">
         <v>186</v>
@@ -5847,7 +5844,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B25" t="s">
         <v>187</v>
@@ -5887,7 +5884,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B26" t="s">
         <v>188</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B27" t="s">
         <v>222</v>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B28" t="s">
         <v>223</v>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B29" t="s">
         <v>189</v>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
         <v>196</v>
@@ -6087,7 +6084,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B31" t="s">
         <v>190</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B32" t="s">
         <v>191</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B33" t="s">
         <v>217</v>
@@ -6207,7 +6204,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B34" t="s">
         <v>192</v>
@@ -6247,7 +6244,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B35" t="s">
         <v>193</v>
@@ -6287,7 +6284,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -6327,7 +6324,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -6367,7 +6364,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -6407,7 +6404,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -6447,7 +6444,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B41" t="s">
         <v>583</v>
@@ -6527,7 +6524,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B42" t="s">
         <v>195</v>
@@ -6567,7 +6564,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B43" t="s">
         <v>473</v>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B44" t="s">
         <v>474</v>
@@ -6647,7 +6644,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B45" t="s">
         <v>224</v>
@@ -6687,7 +6684,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B46" t="s">
         <v>197</v>
@@ -6727,7 +6724,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B47" t="s">
         <v>225</v>
@@ -6767,7 +6764,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B48" t="s">
         <v>198</v>
@@ -6807,7 +6804,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B49" t="s">
         <v>199</v>
@@ -6847,10 +6844,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B50" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -6887,7 +6884,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B51" t="s">
         <v>200</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B52" t="s">
         <v>226</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
@@ -7007,7 +7004,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
@@ -7047,7 +7044,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
@@ -7087,7 +7084,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
@@ -7127,7 +7124,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
@@ -7167,7 +7164,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -7207,7 +7204,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
@@ -7247,7 +7244,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
@@ -7287,7 +7284,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B62" t="s">
         <v>586</v>
@@ -7367,7 +7364,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B63" t="s">
         <v>475</v>
@@ -7407,7 +7404,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B64" t="s">
         <v>463</v>
@@ -7447,7 +7444,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B65" t="s">
         <v>476</v>
@@ -7487,7 +7484,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B66" t="s">
         <v>477</v>
@@ -7527,7 +7524,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B67" t="s">
         <v>478</v>
@@ -7567,7 +7564,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B68" t="s">
         <v>479</v>
@@ -7607,7 +7604,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B69" t="s">
         <v>464</v>
@@ -7647,7 +7644,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B70" t="s">
         <v>472</v>
@@ -7687,7 +7684,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B71" t="s">
         <v>465</v>
@@ -7727,7 +7724,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B72" t="s">
         <v>480</v>
@@ -7767,7 +7764,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B73" t="s">
         <v>229</v>
@@ -7807,7 +7804,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B74" t="s">
         <v>227</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B75" t="s">
         <v>228</v>
@@ -7887,7 +7884,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B76" t="s">
         <v>202</v>
@@ -7927,7 +7924,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B77" t="s">
         <v>203</v>
@@ -7967,7 +7964,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B78" t="s">
         <v>230</v>
@@ -8007,7 +8004,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B79" t="s">
         <v>204</v>
@@ -8047,7 +8044,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B80" t="s">
         <v>205</v>
@@ -8087,7 +8084,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B81" t="s">
         <v>206</v>
@@ -8127,7 +8124,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B82" t="s">
         <v>231</v>
@@ -8167,7 +8164,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B83" t="s">
         <v>232</v>
@@ -8207,7 +8204,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B84" t="s">
         <v>201</v>
@@ -8247,7 +8244,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B85" t="s">
         <v>207</v>
@@ -8287,7 +8284,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B86" t="s">
         <v>233</v>
@@ -8327,7 +8324,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B87" t="s">
         <v>208</v>
@@ -8367,7 +8364,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B88" t="s">
         <v>209</v>
@@ -8407,7 +8404,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B89" t="s">
         <v>210</v>
@@ -8447,7 +8444,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B90" t="s">
         <v>211</v>
@@ -8487,7 +8484,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B91" t="s">
         <v>212</v>
@@ -8527,7 +8524,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B92" t="s">
         <v>216</v>
@@ -8567,7 +8564,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B93" t="s">
         <v>213</v>
@@ -8607,7 +8604,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B94" t="s">
         <v>214</v>
@@ -8647,7 +8644,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B95" t="s">
         <v>215</v>
@@ -8687,7 +8684,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B96" t="s">
         <v>47</v>
@@ -8727,7 +8724,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
@@ -8767,7 +8764,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B98" t="s">
         <v>30</v>
@@ -8807,7 +8804,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B99" t="s">
         <v>49</v>
@@ -8847,7 +8844,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B100" t="s">
         <v>31</v>
@@ -8887,7 +8884,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B101" t="s">
         <v>45</v>
@@ -8927,7 +8924,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B102" t="s">
         <v>46</v>
@@ -8967,7 +8964,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B103" t="s">
         <v>32</v>
@@ -9007,7 +9004,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B104" t="s">
         <v>43</v>
@@ -9047,7 +9044,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B105" t="s">
         <v>44</v>
@@ -9087,7 +9084,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B106" t="s">
         <v>33</v>
@@ -9127,7 +9124,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B107" t="s">
         <v>587</v>
@@ -9167,7 +9164,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B108" t="s">
         <v>51</v>
@@ -9207,7 +9204,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B109" t="s">
         <v>481</v>
@@ -9232,7 +9229,7 @@
         <v>461</v>
       </c>
       <c r="I109" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J109" t="str">
         <f>VLOOKUP(I109,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9247,7 +9244,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B110" t="s">
         <v>489</v>
@@ -9272,7 +9269,7 @@
         <v>461</v>
       </c>
       <c r="I110" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J110" t="str">
         <f>VLOOKUP(I110,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9287,7 +9284,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B111" t="s">
         <v>490</v>
@@ -9312,7 +9309,7 @@
         <v>461</v>
       </c>
       <c r="I111" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J111" t="str">
         <f>VLOOKUP(I111,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B112" t="s">
         <v>482</v>
@@ -9352,7 +9349,7 @@
         <v>461</v>
       </c>
       <c r="I112" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J112" t="str">
         <f>VLOOKUP(I112,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9367,7 +9364,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B113" t="s">
         <v>491</v>
@@ -9392,7 +9389,7 @@
         <v>461</v>
       </c>
       <c r="I113" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J113" t="str">
         <f>VLOOKUP(I113,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9407,7 +9404,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B114" t="s">
         <v>492</v>
@@ -9432,7 +9429,7 @@
         <v>461</v>
       </c>
       <c r="I114" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J114" t="str">
         <f>VLOOKUP(I114,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B115" t="s">
         <v>493</v>
@@ -9472,7 +9469,7 @@
         <v>461</v>
       </c>
       <c r="I115" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J115" t="str">
         <f>VLOOKUP(I115,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9487,7 +9484,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B116" t="s">
         <v>494</v>
@@ -9512,7 +9509,7 @@
         <v>461</v>
       </c>
       <c r="I116" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J116" t="str">
         <f>VLOOKUP(I116,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9527,7 +9524,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B117" t="s">
         <v>495</v>
@@ -9552,7 +9549,7 @@
         <v>461</v>
       </c>
       <c r="I117" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J117" t="str">
         <f>VLOOKUP(I117,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9567,7 +9564,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B118" t="s">
         <v>483</v>
@@ -9592,7 +9589,7 @@
         <v>461</v>
       </c>
       <c r="I118" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J118" t="str">
         <f>VLOOKUP(I118,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9607,7 +9604,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B119" t="s">
         <v>484</v>
@@ -9632,7 +9629,7 @@
         <v>461</v>
       </c>
       <c r="I119" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J119" t="str">
         <f>VLOOKUP(I119,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9647,7 +9644,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B120" t="s">
         <v>485</v>
@@ -9672,7 +9669,7 @@
         <v>461</v>
       </c>
       <c r="I120" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J120" t="str">
         <f>VLOOKUP(I120,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9687,7 +9684,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B121" t="s">
         <v>486</v>
@@ -9712,7 +9709,7 @@
         <v>461</v>
       </c>
       <c r="I121" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J121" t="str">
         <f>VLOOKUP(I121,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9727,7 +9724,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B122" t="s">
         <v>487</v>
@@ -9752,7 +9749,7 @@
         <v>461</v>
       </c>
       <c r="I122" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J122" t="str">
         <f>VLOOKUP(I122,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9767,7 +9764,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B123" t="s">
         <v>496</v>
@@ -9792,7 +9789,7 @@
         <v>461</v>
       </c>
       <c r="I123" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J123" t="str">
         <f>VLOOKUP(I123,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9807,7 +9804,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B124" t="s">
         <v>234</v>
@@ -9832,7 +9829,7 @@
         <v>178</v>
       </c>
       <c r="I124" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J124" t="str">
         <f>VLOOKUP(I124,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9847,7 +9844,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B125" t="s">
         <v>236</v>
@@ -9872,7 +9869,7 @@
         <v>178</v>
       </c>
       <c r="I125" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J125" t="str">
         <f>VLOOKUP(I125,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B126" t="s">
         <v>237</v>
@@ -9912,7 +9909,7 @@
         <v>178</v>
       </c>
       <c r="I126" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J126" t="str">
         <f>VLOOKUP(I126,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9927,7 +9924,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B127" t="s">
         <v>238</v>
@@ -9952,7 +9949,7 @@
         <v>178</v>
       </c>
       <c r="I127" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J127" t="str">
         <f>VLOOKUP(I127,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9967,7 +9964,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B128" t="s">
         <v>253</v>
@@ -9992,7 +9989,7 @@
         <v>178</v>
       </c>
       <c r="I128" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J128" t="str">
         <f>VLOOKUP(I128,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10007,7 +10004,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B129" t="s">
         <v>254</v>
@@ -10032,7 +10029,7 @@
         <v>178</v>
       </c>
       <c r="I129" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J129" t="str">
         <f>VLOOKUP(I129,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10047,7 +10044,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B130" t="s">
         <v>239</v>
@@ -10072,7 +10069,7 @@
         <v>178</v>
       </c>
       <c r="I130" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J130" t="str">
         <f>VLOOKUP(I130,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10087,7 +10084,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B131" t="s">
         <v>161</v>
@@ -10112,7 +10109,7 @@
         <v>160</v>
       </c>
       <c r="I131" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J131" t="str">
         <f>VLOOKUP(I131,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10127,7 +10124,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B132" t="s">
         <v>497</v>
@@ -10152,7 +10149,7 @@
         <v>461</v>
       </c>
       <c r="I132" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J132" t="str">
         <f>VLOOKUP(I132,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10167,7 +10164,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B133" t="s">
         <v>498</v>
@@ -10192,7 +10189,7 @@
         <v>461</v>
       </c>
       <c r="I133" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J133" t="str">
         <f>VLOOKUP(I133,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10207,7 +10204,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B134" t="s">
         <v>488</v>
@@ -10232,7 +10229,7 @@
         <v>461</v>
       </c>
       <c r="I134" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J134" t="str">
         <f>VLOOKUP(I134,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B135" t="s">
         <v>499</v>
@@ -10272,7 +10269,7 @@
         <v>461</v>
       </c>
       <c r="I135" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J135" t="str">
         <f>VLOOKUP(I135,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10287,7 +10284,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B136" t="s">
         <v>500</v>
@@ -10312,7 +10309,7 @@
         <v>461</v>
       </c>
       <c r="I136" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J136" t="str">
         <f>VLOOKUP(I136,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10327,7 +10324,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B137" t="s">
         <v>255</v>
@@ -10352,7 +10349,7 @@
         <v>178</v>
       </c>
       <c r="I137" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J137" t="str">
         <f>VLOOKUP(I137,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10367,7 +10364,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B138" t="s">
         <v>240</v>
@@ -10392,7 +10389,7 @@
         <v>178</v>
       </c>
       <c r="I138" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J138" t="str">
         <f>VLOOKUP(I138,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10407,7 +10404,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B139" t="s">
         <v>241</v>
@@ -10432,7 +10429,7 @@
         <v>178</v>
       </c>
       <c r="I139" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J139" t="str">
         <f>VLOOKUP(I139,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10447,7 +10444,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B140" t="s">
         <v>242</v>
@@ -10472,7 +10469,7 @@
         <v>178</v>
       </c>
       <c r="I140" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J140" t="str">
         <f>VLOOKUP(I140,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10487,7 +10484,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B141" t="s">
         <v>243</v>
@@ -10512,7 +10509,7 @@
         <v>178</v>
       </c>
       <c r="I141" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J141" t="str">
         <f>VLOOKUP(I141,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10527,7 +10524,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B142" t="s">
         <v>244</v>
@@ -10552,7 +10549,7 @@
         <v>178</v>
       </c>
       <c r="I142" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J142" t="str">
         <f>VLOOKUP(I142,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10567,7 +10564,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B143" t="s">
         <v>256</v>
@@ -10592,7 +10589,7 @@
         <v>178</v>
       </c>
       <c r="I143" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J143" t="str">
         <f>VLOOKUP(I143,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10607,10 +10604,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B144" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
@@ -10632,7 +10629,7 @@
         <v>178</v>
       </c>
       <c r="I144" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J144" t="str">
         <f>VLOOKUP(I144,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10647,7 +10644,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B145" t="s">
         <v>245</v>
@@ -10672,7 +10669,7 @@
         <v>178</v>
       </c>
       <c r="I145" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J145" t="str">
         <f>VLOOKUP(I145,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10687,7 +10684,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B146" t="s">
         <v>257</v>
@@ -10712,7 +10709,7 @@
         <v>178</v>
       </c>
       <c r="I146" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J146" t="str">
         <f>VLOOKUP(I146,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10727,7 +10724,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B147" t="s">
         <v>246</v>
@@ -10752,7 +10749,7 @@
         <v>178</v>
       </c>
       <c r="I147" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J147" t="str">
         <f>VLOOKUP(I147,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10767,7 +10764,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B148" t="s">
         <v>258</v>
@@ -10792,7 +10789,7 @@
         <v>178</v>
       </c>
       <c r="I148" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J148" t="str">
         <f>VLOOKUP(I148,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10807,7 +10804,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B149" t="s">
         <v>259</v>
@@ -10832,7 +10829,7 @@
         <v>178</v>
       </c>
       <c r="I149" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J149" t="str">
         <f>VLOOKUP(I149,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10847,7 +10844,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B150" t="s">
         <v>247</v>
@@ -10872,7 +10869,7 @@
         <v>178</v>
       </c>
       <c r="I150" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J150" t="str">
         <f>VLOOKUP(I150,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10887,7 +10884,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B151" t="s">
         <v>248</v>
@@ -10912,7 +10909,7 @@
         <v>178</v>
       </c>
       <c r="I151" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J151" t="str">
         <f>VLOOKUP(I151,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10927,7 +10924,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B152" t="s">
         <v>249</v>
@@ -10952,7 +10949,7 @@
         <v>178</v>
       </c>
       <c r="I152" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J152" t="str">
         <f>VLOOKUP(I152,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10967,7 +10964,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B153" t="s">
         <v>260</v>
@@ -10992,7 +10989,7 @@
         <v>178</v>
       </c>
       <c r="I153" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J153" t="str">
         <f>VLOOKUP(I153,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B154" t="s">
         <v>250</v>
@@ -11032,7 +11029,7 @@
         <v>178</v>
       </c>
       <c r="I154" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J154" t="str">
         <f>VLOOKUP(I154,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B155" t="s">
         <v>251</v>
@@ -11072,7 +11069,7 @@
         <v>178</v>
       </c>
       <c r="I155" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J155" t="str">
         <f>VLOOKUP(I155,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11087,7 +11084,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B156" t="s">
         <v>56</v>
@@ -11112,7 +11109,7 @@
         <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J156" t="str">
         <f>VLOOKUP(I156,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11127,7 +11124,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B157" t="s">
         <v>61</v>
@@ -11152,7 +11149,7 @@
         <v>18</v>
       </c>
       <c r="I157" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J157" t="str">
         <f>VLOOKUP(I157,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11167,7 +11164,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B158" t="s">
         <v>501</v>
@@ -11192,7 +11189,7 @@
         <v>461</v>
       </c>
       <c r="I158" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J158" t="str">
         <f>VLOOKUP(I158,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B159" t="s">
         <v>261</v>
@@ -11232,7 +11229,7 @@
         <v>178</v>
       </c>
       <c r="I159" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J159" t="str">
         <f>VLOOKUP(I159,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11247,7 +11244,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B160" t="s">
         <v>252</v>
@@ -11272,7 +11269,7 @@
         <v>178</v>
       </c>
       <c r="I160" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J160" t="str">
         <f>VLOOKUP(I160,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B161" t="s">
         <v>58</v>
@@ -11312,7 +11309,7 @@
         <v>18</v>
       </c>
       <c r="I161" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J161" t="str">
         <f>VLOOKUP(I161,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11327,7 +11324,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B162" t="s">
         <v>60</v>
@@ -11352,7 +11349,7 @@
         <v>18</v>
       </c>
       <c r="I162" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J162" t="str">
         <f>VLOOKUP(I162,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11367,7 +11364,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B163" t="s">
         <v>588</v>
@@ -11392,7 +11389,7 @@
         <v>585</v>
       </c>
       <c r="I163" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J163" t="str">
         <f>VLOOKUP(I163,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11407,7 +11404,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B164" t="s">
         <v>589</v>
@@ -11432,7 +11429,7 @@
         <v>585</v>
       </c>
       <c r="I164" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J164" t="str">
         <f>VLOOKUP(I164,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11447,7 +11444,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B165" t="s">
         <v>590</v>
@@ -11472,7 +11469,7 @@
         <v>585</v>
       </c>
       <c r="I165" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J165" t="str">
         <f>VLOOKUP(I165,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11487,7 +11484,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B166" t="s">
         <v>262</v>
@@ -11527,7 +11524,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B167" t="s">
         <v>333</v>
@@ -11567,7 +11564,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B168" t="s">
         <v>332</v>
@@ -11607,7 +11604,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B169" t="s">
         <v>65</v>
@@ -11647,10 +11644,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B170" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
@@ -11687,7 +11684,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B171" t="s">
         <v>506</v>
@@ -11727,7 +11724,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B172" t="s">
         <v>507</v>
@@ -11767,7 +11764,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B173" t="s">
         <v>334</v>
@@ -11807,7 +11804,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B174" t="s">
         <v>264</v>
@@ -11847,7 +11844,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B175" t="s">
         <v>265</v>
@@ -11887,7 +11884,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B176" t="s">
         <v>266</v>
@@ -11927,7 +11924,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B177" t="s">
         <v>267</v>
@@ -11967,7 +11964,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B178" t="s">
         <v>268</v>
@@ -12007,7 +12004,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B179" t="s">
         <v>66</v>
@@ -12047,7 +12044,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B180" t="s">
         <v>591</v>
@@ -12087,7 +12084,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B181" t="s">
         <v>508</v>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B182" t="s">
         <v>263</v>
@@ -12167,7 +12164,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B183" t="s">
         <v>509</v>
@@ -12207,7 +12204,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B184" t="s">
         <v>510</v>
@@ -12247,7 +12244,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B185" t="s">
         <v>511</v>
@@ -12287,7 +12284,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B186" t="s">
         <v>512</v>
@@ -12327,7 +12324,7 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B187" t="s">
         <v>513</v>
@@ -12367,7 +12364,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B188" t="s">
         <v>336</v>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B189" t="s">
         <v>335</v>
@@ -12447,7 +12444,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B190" t="s">
         <v>338</v>
@@ -12487,7 +12484,7 @@
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B191" t="s">
         <v>269</v>
@@ -12527,10 +12524,10 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B192" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -12567,7 +12564,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B193" t="s">
         <v>271</v>
@@ -12607,7 +12604,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B194" t="s">
         <v>272</v>
@@ -12647,7 +12644,7 @@
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B195" t="s">
         <v>273</v>
@@ -12687,7 +12684,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B196" t="s">
         <v>337</v>
@@ -12727,7 +12724,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B197" t="s">
         <v>274</v>
@@ -12767,7 +12764,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B198" t="s">
         <v>277</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B199" t="s">
         <v>275</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B200" t="s">
         <v>276</v>
@@ -12887,7 +12884,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B201" t="s">
         <v>514</v>
@@ -12927,7 +12924,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B202" t="s">
         <v>515</v>
@@ -12967,7 +12964,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B203" t="s">
         <v>516</v>
@@ -13007,7 +13004,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B204" t="s">
         <v>517</v>
@@ -13047,7 +13044,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B205" t="s">
         <v>518</v>
@@ -13087,7 +13084,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B206" t="s">
         <v>519</v>
@@ -13127,7 +13124,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B207" t="s">
         <v>278</v>
@@ -13167,7 +13164,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B208" t="s">
         <v>340</v>
@@ -13207,7 +13204,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B209" t="s">
         <v>341</v>
@@ -13247,7 +13244,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B210" t="s">
         <v>279</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B211" t="s">
         <v>280</v>
@@ -13327,7 +13324,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B212" t="s">
         <v>281</v>
@@ -13367,7 +13364,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B213" t="s">
         <v>282</v>
@@ -13407,7 +13404,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B214" t="s">
         <v>283</v>
@@ -13447,7 +13444,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B215" t="s">
         <v>284</v>
@@ -13487,7 +13484,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B216" t="s">
         <v>285</v>
@@ -13527,7 +13524,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B217" t="s">
         <v>286</v>
@@ -13567,7 +13564,7 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B218" t="s">
         <v>287</v>
@@ -13607,7 +13604,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B219" t="s">
         <v>288</v>
@@ -13647,7 +13644,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B220" t="s">
         <v>289</v>
@@ -13687,7 +13684,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B221" t="s">
         <v>342</v>
@@ -13727,7 +13724,7 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B222" t="s">
         <v>290</v>
@@ -13767,7 +13764,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B223" t="s">
         <v>339</v>
@@ -13807,7 +13804,7 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B224" t="s">
         <v>291</v>
@@ -13847,7 +13844,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B225" t="s">
         <v>292</v>
@@ -13887,7 +13884,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B226" t="s">
         <v>293</v>
@@ -13927,7 +13924,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B227" t="s">
         <v>112</v>
@@ -13967,7 +13964,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B228" t="s">
         <v>68</v>
@@ -14007,7 +14004,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B229" t="s">
         <v>520</v>
@@ -14047,7 +14044,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B230" t="s">
         <v>521</v>
@@ -14087,7 +14084,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B231" t="s">
         <v>294</v>
@@ -14127,7 +14124,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B232" t="s">
         <v>343</v>
@@ -14167,7 +14164,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B233" t="s">
         <v>295</v>
@@ -14207,7 +14204,7 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B234" t="s">
         <v>296</v>
@@ -14247,7 +14244,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B235" t="s">
         <v>297</v>
@@ -14287,7 +14284,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B236" t="s">
         <v>298</v>
@@ -14327,7 +14324,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B237" t="s">
         <v>299</v>
@@ -14367,7 +14364,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B238" t="s">
         <v>300</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B239" t="s">
         <v>70</v>
@@ -14447,7 +14444,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B240" t="s">
         <v>113</v>
@@ -14487,7 +14484,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B241" t="s">
         <v>162</v>
@@ -14527,7 +14524,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B242" t="s">
         <v>502</v>
@@ -14567,7 +14564,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B243" t="s">
         <v>344</v>
@@ -14607,7 +14604,7 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B244" t="s">
         <v>72</v>
@@ -14647,7 +14644,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B245" t="s">
         <v>74</v>
@@ -14687,7 +14684,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B246" t="s">
         <v>75</v>
@@ -14727,7 +14724,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B247" t="s">
         <v>164</v>
@@ -14767,7 +14764,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B248" t="s">
         <v>522</v>
@@ -14807,7 +14804,7 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B249" t="s">
         <v>345</v>
@@ -14847,7 +14844,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B250" t="s">
         <v>301</v>
@@ -14887,7 +14884,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B251" t="s">
         <v>302</v>
@@ -14927,7 +14924,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B252" t="s">
         <v>303</v>
@@ -14967,7 +14964,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B253" t="s">
         <v>304</v>
@@ -15007,7 +15004,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B254" t="s">
         <v>305</v>
@@ -15047,7 +15044,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B255" t="s">
         <v>306</v>
@@ -15087,7 +15084,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B256" t="s">
         <v>307</v>
@@ -15127,7 +15124,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B257" t="s">
         <v>76</v>
@@ -15167,7 +15164,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B258" t="s">
         <v>523</v>
@@ -15207,7 +15204,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B259" t="s">
         <v>524</v>
@@ -15247,7 +15244,7 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B260" t="s">
         <v>346</v>
@@ -15287,7 +15284,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B261" t="s">
         <v>308</v>
@@ -15327,7 +15324,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B262" t="s">
         <v>78</v>
@@ -15367,7 +15364,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B263" t="s">
         <v>82</v>
@@ -15407,7 +15404,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B264" t="s">
         <v>80</v>
@@ -15447,7 +15444,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B265" t="s">
         <v>81</v>
@@ -15487,7 +15484,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B266" t="s">
         <v>525</v>
@@ -15527,7 +15524,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B267" t="s">
         <v>83</v>
@@ -15567,7 +15564,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B268" t="s">
         <v>85</v>
@@ -15607,7 +15604,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B269" t="s">
         <v>86</v>
@@ -15647,7 +15644,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B270" t="s">
         <v>347</v>
@@ -15687,7 +15684,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B271" t="s">
         <v>310</v>
@@ -15727,7 +15724,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B272" t="s">
         <v>309</v>
@@ -15767,7 +15764,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B273" t="s">
         <v>87</v>
@@ -15807,7 +15804,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B274" t="s">
         <v>89</v>
@@ -15847,7 +15844,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B275" t="s">
         <v>526</v>
@@ -15887,7 +15884,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B276" t="s">
         <v>532</v>
@@ -15927,7 +15924,7 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B277" t="s">
         <v>527</v>
@@ -15967,7 +15964,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B278" t="s">
         <v>531</v>
@@ -16007,7 +16004,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B279" t="s">
         <v>528</v>
@@ -16047,7 +16044,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B280" t="s">
         <v>529</v>
@@ -16087,7 +16084,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B281" t="s">
         <v>530</v>
@@ -16127,7 +16124,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B282" t="s">
         <v>350</v>
@@ -16167,7 +16164,7 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B283" t="s">
         <v>311</v>
@@ -16207,7 +16204,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B284" t="s">
         <v>313</v>
@@ -16247,7 +16244,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B285" t="s">
         <v>348</v>
@@ -16287,7 +16284,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B286" t="s">
         <v>314</v>
@@ -16327,7 +16324,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B287" t="s">
         <v>315</v>
@@ -16367,7 +16364,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B288" t="s">
         <v>316</v>
@@ -16407,7 +16404,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B289" t="s">
         <v>317</v>
@@ -16447,7 +16444,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B290" t="s">
         <v>349</v>
@@ -16487,7 +16484,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B291" t="s">
         <v>351</v>
@@ -16527,7 +16524,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B292" t="s">
         <v>318</v>
@@ -16567,7 +16564,7 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B293" t="s">
         <v>352</v>
@@ -16607,7 +16604,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B294" t="s">
         <v>319</v>
@@ -16647,7 +16644,7 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B295" t="s">
         <v>166</v>
@@ -16687,7 +16684,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B296" t="s">
         <v>534</v>
@@ -16727,7 +16724,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B297" t="s">
         <v>535</v>
@@ -16767,7 +16764,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B298" t="s">
         <v>503</v>
@@ -16807,7 +16804,7 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B299" t="s">
         <v>536</v>
@@ -16847,7 +16844,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B300" t="s">
         <v>504</v>
@@ -16887,7 +16884,7 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B301" t="s">
         <v>533</v>
@@ -16927,7 +16924,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B302" t="s">
         <v>353</v>
@@ -16967,7 +16964,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B303" t="s">
         <v>354</v>
@@ -17007,7 +17004,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B304" t="s">
         <v>355</v>
@@ -17047,7 +17044,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B305" t="s">
         <v>320</v>
@@ -17087,7 +17084,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B306" t="s">
         <v>321</v>
@@ -17127,7 +17124,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B307" t="s">
         <v>322</v>
@@ -17167,7 +17164,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B308" t="s">
         <v>93</v>
@@ -17207,7 +17204,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B309" t="s">
         <v>90</v>
@@ -17247,7 +17244,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B310" t="s">
         <v>92</v>
@@ -17287,7 +17284,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B311" t="s">
         <v>323</v>
@@ -17327,7 +17324,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B312" t="s">
         <v>324</v>
@@ -17367,7 +17364,7 @@
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B313" t="s">
         <v>593</v>
@@ -17407,7 +17404,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B314" t="s">
         <v>94</v>
@@ -17447,7 +17444,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B315" t="s">
         <v>96</v>
@@ -17487,7 +17484,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B316" t="s">
         <v>592</v>
@@ -17527,7 +17524,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B317" t="s">
         <v>325</v>
@@ -17567,7 +17564,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B318" t="s">
         <v>326</v>
@@ -17607,7 +17604,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B319" t="s">
         <v>97</v>
@@ -17647,7 +17644,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B320" t="s">
         <v>100</v>
@@ -17687,7 +17684,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B321" t="s">
         <v>101</v>
@@ -17727,10 +17724,10 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B322" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C322" t="s">
         <v>25</v>
@@ -17767,7 +17764,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B323" t="s">
         <v>505</v>
@@ -17807,7 +17804,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B324" t="s">
         <v>537</v>
@@ -17847,7 +17844,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B325" t="s">
         <v>327</v>
@@ -17887,10 +17884,10 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B326" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
@@ -17927,7 +17924,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B327" t="s">
         <v>102</v>
@@ -17967,7 +17964,7 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B328" t="s">
         <v>104</v>
@@ -18007,7 +18004,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B329" t="s">
         <v>328</v>
@@ -18047,7 +18044,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B330" t="s">
         <v>329</v>
@@ -18087,7 +18084,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B331" t="s">
         <v>330</v>
@@ -18127,7 +18124,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B332" t="s">
         <v>105</v>
@@ -18167,7 +18164,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B333" t="s">
         <v>107</v>
@@ -18207,7 +18204,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B334" t="s">
         <v>331</v>
@@ -18247,7 +18244,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B335" t="s">
         <v>108</v>
@@ -18287,7 +18284,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B336" t="s">
         <v>111</v>
@@ -18327,7 +18324,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B337" t="s">
         <v>110</v>
@@ -18367,7 +18364,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B338" t="s">
         <v>594</v>
@@ -18407,7 +18404,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B339" t="s">
         <v>168</v>
@@ -18447,10 +18444,10 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B340" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C340" t="s">
         <v>25</v>
@@ -18487,7 +18484,7 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B341" t="s">
         <v>548</v>
@@ -18527,7 +18524,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B342" t="s">
         <v>538</v>
@@ -18567,7 +18564,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B343" t="s">
         <v>539</v>
@@ -18607,7 +18604,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B344" t="s">
         <v>549</v>
@@ -18647,7 +18644,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B345" t="s">
         <v>540</v>
@@ -18687,7 +18684,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B346" t="s">
         <v>550</v>
@@ -18727,7 +18724,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B347" t="s">
         <v>541</v>
@@ -18767,7 +18764,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B348" t="s">
         <v>542</v>
@@ -18807,7 +18804,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B349" t="s">
         <v>543</v>
@@ -18847,7 +18844,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B350" t="s">
         <v>544</v>
@@ -18887,7 +18884,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B351" t="s">
         <v>551</v>
@@ -18927,7 +18924,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B352" t="s">
         <v>545</v>
@@ -18967,7 +18964,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B353" t="s">
         <v>552</v>
@@ -19007,7 +19004,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B354" t="s">
         <v>553</v>
@@ -19047,7 +19044,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B355" t="s">
         <v>554</v>
@@ -19087,7 +19084,7 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B356" t="s">
         <v>546</v>
@@ -19127,7 +19124,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B357" t="s">
         <v>547</v>
@@ -19167,7 +19164,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B358" t="s">
         <v>378</v>
@@ -19207,7 +19204,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B359" t="s">
         <v>373</v>
@@ -19247,7 +19244,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B360" t="s">
         <v>374</v>
@@ -19287,7 +19284,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B361" t="s">
         <v>356</v>
@@ -19327,7 +19324,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B362" t="s">
         <v>357</v>
@@ -19367,7 +19364,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B363" t="s">
         <v>358</v>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B364" t="s">
         <v>359</v>
@@ -19447,7 +19444,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B365" t="s">
         <v>375</v>
@@ -19487,7 +19484,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B366" t="s">
         <v>376</v>
@@ -19527,7 +19524,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B367" t="s">
         <v>360</v>
@@ -19567,7 +19564,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B368" t="s">
         <v>377</v>
@@ -19607,7 +19604,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B369" t="s">
         <v>361</v>
@@ -19647,7 +19644,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B370" t="s">
         <v>379</v>
@@ -19687,7 +19684,7 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B371" t="s">
         <v>380</v>
@@ -19727,7 +19724,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B372" t="s">
         <v>362</v>
@@ -19767,7 +19764,7 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B373" t="s">
         <v>363</v>
@@ -19807,7 +19804,7 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B374" t="s">
         <v>364</v>
@@ -19847,7 +19844,7 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B375" t="s">
         <v>365</v>
@@ -19887,7 +19884,7 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B376" t="s">
         <v>366</v>
@@ -19927,7 +19924,7 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B377" t="s">
         <v>381</v>
@@ -19967,7 +19964,7 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B378" t="s">
         <v>367</v>
@@ -20007,7 +20004,7 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B379" t="s">
         <v>368</v>
@@ -20047,7 +20044,7 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B380" t="s">
         <v>369</v>
@@ -20087,7 +20084,7 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B381" t="s">
         <v>370</v>
@@ -20127,10 +20124,10 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B382" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -20167,7 +20164,7 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B383" t="s">
         <v>371</v>
@@ -20207,7 +20204,7 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B384" t="s">
         <v>382</v>
@@ -20247,7 +20244,7 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B385" t="s">
         <v>372</v>
@@ -20287,7 +20284,7 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B386" t="s">
         <v>114</v>
@@ -20327,7 +20324,7 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B387" t="s">
         <v>117</v>
@@ -20367,7 +20364,7 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B388" t="s">
         <v>118</v>
@@ -20407,7 +20404,7 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B389" t="s">
         <v>119</v>
@@ -20447,7 +20444,7 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B390" t="s">
         <v>595</v>
@@ -20487,7 +20484,7 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
@@ -20527,7 +20524,7 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B392" t="s">
         <v>383</v>
@@ -20567,10 +20564,10 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B393" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C393" t="s">
         <v>25</v>
@@ -20607,10 +20604,10 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B394" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
@@ -20647,7 +20644,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B395" t="s">
         <v>125</v>
@@ -20687,7 +20684,7 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B396" t="s">
         <v>120</v>
@@ -20727,7 +20724,7 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B397" t="s">
         <v>123</v>
@@ -20767,7 +20764,7 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B398" t="s">
         <v>124</v>
@@ -20807,7 +20804,7 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B399" t="s">
         <v>600</v>
@@ -20847,7 +20844,7 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B400" t="s">
         <v>385</v>
@@ -20887,7 +20884,7 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B401" t="s">
         <v>387</v>
@@ -20927,7 +20924,7 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B402" t="s">
         <v>388</v>
@@ -20967,7 +20964,7 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B403" t="s">
         <v>389</v>
@@ -21007,7 +21004,7 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B404" t="s">
         <v>598</v>
@@ -21047,7 +21044,7 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B405" t="s">
         <v>386</v>
@@ -21079,7 +21076,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K405" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L405" t="s">
         <v>22</v>
@@ -21087,7 +21084,7 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B406" t="s">
         <v>391</v>
@@ -21119,7 +21116,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K406" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L406" t="s">
         <v>22</v>
@@ -21127,7 +21124,7 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B407" t="s">
         <v>390</v>
@@ -21159,7 +21156,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K407" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L407" t="s">
         <v>22</v>
@@ -21167,7 +21164,7 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B408" t="s">
         <v>596</v>
@@ -21199,7 +21196,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K408" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L408" t="s">
         <v>22</v>
@@ -21207,7 +21204,7 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B409" t="s">
         <v>597</v>
@@ -21239,7 +21236,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K409" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L409" t="s">
         <v>22</v>
@@ -21247,7 +21244,7 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B410" t="s">
         <v>599</v>
@@ -21279,7 +21276,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K410" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L410" t="s">
         <v>22</v>
@@ -21287,7 +21284,7 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B411" t="s">
         <v>169</v>
@@ -21327,7 +21324,7 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B412" t="s">
         <v>555</v>
@@ -21367,7 +21364,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B413" t="s">
         <v>556</v>
@@ -21407,7 +21404,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B414" t="s">
         <v>562</v>
@@ -21447,7 +21444,7 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B415" t="s">
         <v>563</v>
@@ -21487,7 +21484,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B416" t="s">
         <v>557</v>
@@ -21527,7 +21524,7 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B417" t="s">
         <v>558</v>
@@ -21567,7 +21564,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B418" t="s">
         <v>559</v>
@@ -21607,7 +21604,7 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B419" t="s">
         <v>564</v>
@@ -21647,7 +21644,7 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B420" t="s">
         <v>565</v>
@@ -21687,7 +21684,7 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B421" t="s">
         <v>566</v>
@@ -21727,7 +21724,7 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B422" t="s">
         <v>560</v>
@@ -21767,7 +21764,7 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B423" t="s">
         <v>567</v>
@@ -21807,7 +21804,7 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B424" t="s">
         <v>393</v>
@@ -21847,7 +21844,7 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B425" t="s">
         <v>394</v>
@@ -21887,7 +21884,7 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B426" t="s">
         <v>395</v>
@@ -21927,7 +21924,7 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B427" t="s">
         <v>416</v>
@@ -21967,7 +21964,7 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B428" t="s">
         <v>396</v>
@@ -22007,7 +22004,7 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B429" t="s">
         <v>417</v>
@@ -22047,7 +22044,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B430" t="s">
         <v>397</v>
@@ -22087,7 +22084,7 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B431" t="s">
         <v>418</v>
@@ -22127,7 +22124,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B432" t="s">
         <v>398</v>
@@ -22167,10 +22164,10 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B433" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C433" t="s">
         <v>14</v>
@@ -22207,7 +22204,7 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B434" t="s">
         <v>127</v>
@@ -22247,7 +22244,7 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B435" t="s">
         <v>171</v>
@@ -22287,7 +22284,7 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B436" t="s">
         <v>172</v>
@@ -22327,7 +22324,7 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B437" t="s">
         <v>568</v>
@@ -22367,7 +22364,7 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B438" t="s">
         <v>561</v>
@@ -22407,7 +22404,7 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B439" t="s">
         <v>569</v>
@@ -22447,7 +22444,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B440" t="s">
         <v>399</v>
@@ -22487,7 +22484,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B441" t="s">
         <v>419</v>
@@ -22527,7 +22524,7 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B442" t="s">
         <v>400</v>
@@ -22567,7 +22564,7 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B443" t="s">
         <v>420</v>
@@ -22607,7 +22604,7 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B444" t="s">
         <v>401</v>
@@ -22647,7 +22644,7 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B445" t="s">
         <v>402</v>
@@ -22687,7 +22684,7 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B446" t="s">
         <v>403</v>
@@ -22727,7 +22724,7 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B447" t="s">
         <v>404</v>
@@ -22767,7 +22764,7 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B448" t="s">
         <v>405</v>
@@ -22807,7 +22804,7 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B449" t="s">
         <v>406</v>
@@ -22847,7 +22844,7 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B450" t="s">
         <v>407</v>
@@ -22887,7 +22884,7 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B451" t="s">
         <v>134</v>
@@ -22927,10 +22924,10 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B452" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C452" t="s">
         <v>25</v>
@@ -22967,7 +22964,7 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B453" t="s">
         <v>132</v>
@@ -23007,7 +23004,7 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B454" t="s">
         <v>133</v>
@@ -23047,7 +23044,7 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B455" t="s">
         <v>602</v>
@@ -23087,7 +23084,7 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B456" t="s">
         <v>601</v>
@@ -23127,7 +23124,7 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B457" t="s">
         <v>603</v>
@@ -23167,7 +23164,7 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B458" t="s">
         <v>604</v>
@@ -23207,7 +23204,7 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B459" t="s">
         <v>605</v>
@@ -23247,7 +23244,7 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B460" t="s">
         <v>570</v>
@@ -23287,7 +23284,7 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B461" t="s">
         <v>408</v>
@@ -23327,7 +23324,7 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B462" t="s">
         <v>409</v>
@@ -23367,7 +23364,7 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B463" t="s">
         <v>410</v>
@@ -23407,7 +23404,7 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B464" t="s">
         <v>411</v>
@@ -23447,7 +23444,7 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B465" t="s">
         <v>421</v>
@@ -23487,7 +23484,7 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B466" t="s">
         <v>422</v>
@@ -23527,7 +23524,7 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B467" t="s">
         <v>412</v>
@@ -23567,7 +23564,7 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B468" t="s">
         <v>413</v>
@@ -23607,7 +23604,7 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B469" t="s">
         <v>414</v>
@@ -23647,7 +23644,7 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B470" t="s">
         <v>415</v>
@@ -23687,7 +23684,7 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B471" t="s">
         <v>135</v>
@@ -23727,7 +23724,7 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B472" t="s">
         <v>608</v>
@@ -23767,7 +23764,7 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B473" t="s">
         <v>606</v>
@@ -23807,10 +23804,10 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B474" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C474" t="s">
         <v>14</v>
@@ -23847,7 +23844,7 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B475" t="s">
         <v>609</v>
@@ -23887,7 +23884,7 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B476" t="s">
         <v>607</v>
@@ -23927,7 +23924,7 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B477" t="s">
         <v>610</v>
@@ -23967,7 +23964,7 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B478" t="s">
         <v>423</v>
@@ -24007,7 +24004,7 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B479" t="s">
         <v>612</v>
@@ -24047,7 +24044,7 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B480" t="s">
         <v>613</v>
@@ -24087,7 +24084,7 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B481" t="s">
         <v>611</v>
@@ -24127,7 +24124,7 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B482" t="s">
         <v>574</v>
@@ -24167,7 +24164,7 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B483" t="s">
         <v>575</v>
@@ -24207,7 +24204,7 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B484" t="s">
         <v>576</v>
@@ -24247,10 +24244,10 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B485" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C485" t="s">
         <v>14</v>
@@ -24287,10 +24284,10 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B486" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C486" t="s">
         <v>14</v>
@@ -24327,10 +24324,10 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B487" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C487" t="s">
         <v>14</v>
@@ -24367,10 +24364,10 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B488" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
@@ -24407,10 +24404,10 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B489" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C489" t="s">
         <v>14</v>
@@ -24447,7 +24444,7 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B490" t="s">
         <v>425</v>
@@ -24487,10 +24484,10 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B491" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C491" t="s">
         <v>14</v>
@@ -24527,10 +24524,10 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B492" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C492" t="s">
         <v>14</v>
@@ -24567,7 +24564,7 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B493" t="s">
         <v>451</v>
@@ -24607,10 +24604,10 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B494" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C494" t="s">
         <v>14</v>
@@ -24647,7 +24644,7 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B495" t="s">
         <v>452</v>
@@ -24687,10 +24684,10 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B496" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C496" t="s">
         <v>14</v>
@@ -24727,10 +24724,10 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B497" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C497" t="s">
         <v>14</v>
@@ -24767,10 +24764,10 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B498" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C498" t="s">
         <v>14</v>
@@ -24807,10 +24804,10 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B499" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C499" t="s">
         <v>14</v>
@@ -24847,7 +24844,7 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B500" t="s">
         <v>137</v>
@@ -24887,7 +24884,7 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B501" t="s">
         <v>141</v>
@@ -24927,10 +24924,10 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B502" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C502" t="s">
         <v>25</v>
@@ -24967,10 +24964,10 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B503" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C503" t="s">
         <v>14</v>
@@ -25007,10 +25004,10 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B504" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C504" t="s">
         <v>25</v>
@@ -25047,10 +25044,10 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B505" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C505" t="s">
         <v>14</v>
@@ -25087,10 +25084,10 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B506" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C506" t="s">
         <v>14</v>
@@ -25127,7 +25124,7 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B507" t="s">
         <v>577</v>
@@ -25167,7 +25164,7 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B508" t="s">
         <v>578</v>
@@ -25207,10 +25204,10 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B509" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C509" t="s">
         <v>25</v>
@@ -25247,10 +25244,10 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B510" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C510" t="s">
         <v>14</v>
@@ -25287,10 +25284,10 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B511" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C511" t="s">
         <v>25</v>
@@ -25327,10 +25324,10 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B512" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C512" t="s">
         <v>14</v>
@@ -25367,10 +25364,10 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B513" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C513" t="s">
         <v>25</v>
@@ -25407,10 +25404,10 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B514" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C514" t="s">
         <v>25</v>
@@ -25447,10 +25444,10 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B515" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C515" t="s">
         <v>14</v>
@@ -25487,10 +25484,10 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B516" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C516" t="s">
         <v>25</v>
@@ -25527,10 +25524,10 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B517" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C517" t="s">
         <v>25</v>
@@ -25567,10 +25564,10 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B518" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C518" t="s">
         <v>25</v>
@@ -25607,10 +25604,10 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B519" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C519" t="s">
         <v>14</v>
@@ -25647,7 +25644,7 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B520" t="s">
         <v>426</v>
@@ -25687,7 +25684,7 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B521" t="s">
         <v>427</v>
@@ -25727,10 +25724,10 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B522" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C522" t="s">
         <v>14</v>
@@ -25767,10 +25764,10 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B523" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C523" t="s">
         <v>14</v>
@@ -25807,10 +25804,10 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B524" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C524" t="s">
         <v>25</v>
@@ -25847,10 +25844,10 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B525" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C525" t="s">
         <v>14</v>
@@ -25887,10 +25884,10 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B526" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C526" t="s">
         <v>25</v>
@@ -25927,10 +25924,10 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B527" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C527" t="s">
         <v>14</v>
@@ -25967,10 +25964,10 @@
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B528" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C528" t="s">
         <v>14</v>
@@ -26007,10 +26004,10 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B529" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C529" t="s">
         <v>25</v>
@@ -26047,10 +26044,10 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B530" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C530" t="s">
         <v>25</v>
@@ -26087,10 +26084,10 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B531" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C531" t="s">
         <v>25</v>
@@ -26127,10 +26124,10 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B532" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C532" t="s">
         <v>25</v>
@@ -26167,7 +26164,7 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B533" t="s">
         <v>173</v>
@@ -26207,7 +26204,7 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B534" t="s">
         <v>174</v>
@@ -26247,7 +26244,7 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B535" t="s">
         <v>579</v>
@@ -26287,10 +26284,10 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B536" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C536" t="s">
         <v>25</v>
@@ -26327,10 +26324,10 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B537" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C537" t="s">
         <v>25</v>
@@ -26367,10 +26364,10 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B538" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C538" t="s">
         <v>14</v>
@@ -26407,7 +26404,7 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B539" t="s">
         <v>428</v>
@@ -26447,7 +26444,7 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B540" t="s">
         <v>429</v>
@@ -26487,7 +26484,7 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B541" t="s">
         <v>430</v>
@@ -26527,7 +26524,7 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B542" t="s">
         <v>431</v>
@@ -26567,10 +26564,10 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B543" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C543" t="s">
         <v>25</v>
@@ -26607,10 +26604,10 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B544" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C544" t="s">
         <v>25</v>
@@ -26647,7 +26644,7 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B545" t="s">
         <v>453</v>
@@ -26687,10 +26684,10 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B546" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C546" t="s">
         <v>14</v>
@@ -26727,7 +26724,7 @@
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B547" t="s">
         <v>432</v>
@@ -26767,7 +26764,7 @@
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B548" t="s">
         <v>433</v>
@@ -26807,7 +26804,7 @@
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B549" t="s">
         <v>454</v>
@@ -26847,10 +26844,10 @@
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B550" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C550" t="s">
         <v>25</v>
@@ -26887,7 +26884,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B551" t="s">
         <v>455</v>
@@ -26927,10 +26924,10 @@
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B552" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C552" t="s">
         <v>25</v>
@@ -26967,7 +26964,7 @@
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B553" t="s">
         <v>434</v>
@@ -27007,10 +27004,10 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B554" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C554" t="s">
         <v>25</v>
@@ -27047,10 +27044,10 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B555" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C555" t="s">
         <v>14</v>
@@ -27087,10 +27084,10 @@
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B556" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C556" t="s">
         <v>25</v>
@@ -27127,7 +27124,7 @@
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B557" t="s">
         <v>435</v>
@@ -27167,7 +27164,7 @@
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B558" t="s">
         <v>436</v>
@@ -27207,10 +27204,10 @@
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B559" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C559" t="s">
         <v>14</v>
@@ -27247,7 +27244,7 @@
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B560" t="s">
         <v>156</v>
@@ -27287,10 +27284,10 @@
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B561" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -27327,10 +27324,10 @@
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B562" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C562" t="s">
         <v>14</v>
@@ -27367,7 +27364,7 @@
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B563" t="s">
         <v>580</v>
@@ -27407,7 +27404,7 @@
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B564" t="s">
         <v>581</v>
@@ -27447,10 +27444,10 @@
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B565" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C565" t="s">
         <v>14</v>
@@ -27487,10 +27484,10 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B566" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C566" t="s">
         <v>25</v>
@@ -27527,7 +27524,7 @@
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B567" t="s">
         <v>456</v>
@@ -27567,7 +27564,7 @@
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B568" t="s">
         <v>437</v>
@@ -27607,10 +27604,10 @@
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B569" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C569" t="s">
         <v>14</v>
@@ -27647,7 +27644,7 @@
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B570" t="s">
         <v>438</v>
@@ -27687,10 +27684,10 @@
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B571" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C571" t="s">
         <v>14</v>
@@ -27727,7 +27724,7 @@
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B572" t="s">
         <v>457</v>
@@ -27767,10 +27764,10 @@
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B573" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C573" t="s">
         <v>14</v>
@@ -27807,7 +27804,7 @@
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B574" t="s">
         <v>439</v>
@@ -27847,10 +27844,10 @@
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B575" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C575" t="s">
         <v>14</v>
@@ -27887,10 +27884,10 @@
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B576" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C576" t="s">
         <v>14</v>
@@ -27927,10 +27924,10 @@
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B577" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C577" t="s">
         <v>14</v>
@@ -27967,7 +27964,7 @@
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B578" t="s">
         <v>440</v>
@@ -28007,10 +28004,10 @@
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B579" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C579" t="s">
         <v>14</v>
@@ -28047,7 +28044,7 @@
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B580" t="s">
         <v>145</v>
@@ -28087,7 +28084,7 @@
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B581" t="s">
         <v>146</v>
@@ -28127,10 +28124,10 @@
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B582" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C582" t="s">
         <v>14</v>
@@ -28167,10 +28164,10 @@
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B583" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C583" t="s">
         <v>14</v>
@@ -28207,7 +28204,7 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B584" t="s">
         <v>175</v>
@@ -28247,10 +28244,10 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B585" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C585" t="s">
         <v>14</v>
@@ -28287,7 +28284,7 @@
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B586" t="s">
         <v>571</v>
@@ -28327,10 +28324,10 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B587" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C587" t="s">
         <v>25</v>
@@ -28367,7 +28364,7 @@
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B588" t="s">
         <v>582</v>
@@ -28407,7 +28404,7 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B589" t="s">
         <v>458</v>
@@ -28447,10 +28444,10 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B590" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C590" t="s">
         <v>25</v>
@@ -28487,7 +28484,7 @@
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B591" t="s">
         <v>441</v>
@@ -28527,10 +28524,10 @@
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B592" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C592" t="s">
         <v>14</v>
@@ -28567,7 +28564,7 @@
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B593" t="s">
         <v>442</v>
@@ -28607,7 +28604,7 @@
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B594" t="s">
         <v>443</v>
@@ -28647,10 +28644,10 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B595" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C595" t="s">
         <v>14</v>
@@ -28687,10 +28684,10 @@
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B596" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C596" t="s">
         <v>14</v>
@@ -28727,10 +28724,10 @@
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B597" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C597" t="s">
         <v>25</v>
@@ -28767,10 +28764,10 @@
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B598" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C598" t="s">
         <v>25</v>
@@ -28807,10 +28804,10 @@
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B599" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C599" t="s">
         <v>25</v>
@@ -28847,7 +28844,7 @@
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B600" t="s">
         <v>147</v>
@@ -28887,10 +28884,10 @@
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B601" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C601" t="s">
         <v>25</v>
@@ -28927,7 +28924,7 @@
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B602" t="s">
         <v>149</v>
@@ -28967,7 +28964,7 @@
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B603" t="s">
         <v>572</v>
@@ -29007,7 +29004,7 @@
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B604" t="s">
         <v>573</v>
@@ -29047,7 +29044,7 @@
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B605" t="s">
         <v>444</v>
@@ -29087,10 +29084,10 @@
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B606" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C606" t="s">
         <v>14</v>
@@ -29127,10 +29124,10 @@
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B607" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C607" t="s">
         <v>25</v>
@@ -29167,10 +29164,10 @@
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B608" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C608" t="s">
         <v>14</v>
@@ -29207,10 +29204,10 @@
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B609" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C609" t="s">
         <v>14</v>
@@ -29247,7 +29244,7 @@
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B610" t="s">
         <v>445</v>
@@ -29287,7 +29284,7 @@
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B611" t="s">
         <v>446</v>
@@ -29327,7 +29324,7 @@
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B612" t="s">
         <v>447</v>
@@ -29367,7 +29364,7 @@
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B613" t="s">
         <v>448</v>
@@ -29407,7 +29404,7 @@
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B614" t="s">
         <v>449</v>
@@ -29447,7 +29444,7 @@
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B615" t="s">
         <v>450</v>
@@ -29487,7 +29484,7 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B616" t="s">
         <v>150</v>
@@ -29527,7 +29524,7 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B617" t="s">
         <v>153</v>
@@ -29567,7 +29564,7 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B618" t="s">
         <v>152</v>
@@ -29607,7 +29604,7 @@
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B619" t="s">
         <v>154</v>
@@ -29642,12 +29639,12 @@
         <v>151</v>
       </c>
       <c r="L619" t="s">
-        <v>615</v>
+        <v>22</v>
       </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B620" t="s">
         <v>155</v>
@@ -29682,7 +29679,7 @@
         <v>151</v>
       </c>
       <c r="L620" t="s">
-        <v>615</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -29707,7 +29704,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -29718,7 +29715,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C3" t="s">
         <v>460</v>
@@ -29740,7 +29737,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -29751,7 +29748,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C6" t="s">
         <v>584</v>
@@ -29817,10 +29814,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C16" t="s">
         <v>1332</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1333</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -29831,7 +29828,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D17">
         <v>7</v>

--- a/static/SDM_dosen_pns.xlsx
+++ b/static/SDM_dosen_pns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\# REGISTRASI DAN STATISTIK\Website\202101\202101\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F80945C-2308-4B82-86D1-EDE94822E44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4AFED-8AE4-4123-A4F5-027DBF72051E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SDM!$A$1:$M$620</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SDM!$A$1:$M$619</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222" uniqueCount="1332">
   <si>
     <t>NIP</t>
   </si>
@@ -3350,9 +3350,6 @@
     <t>A197807242003122001</t>
   </si>
   <si>
-    <t>A197910252006041002</t>
-  </si>
-  <si>
     <t>A198103282010121001</t>
   </si>
   <si>
@@ -3771,9 +3768,6 @@
   </si>
   <si>
     <t>Heri Haryanto, ST., MT.</t>
-  </si>
-  <si>
-    <t>Herudin, ST., MT.</t>
   </si>
   <si>
     <t>Dr. Romi Wiryadinata, ST., M.Eng.</t>
@@ -4867,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M620"/>
+  <dimension ref="A1:M619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L620"/>
+    <sheetView tabSelected="1" topLeftCell="B485" workbookViewId="0">
+      <selection activeCell="B496" sqref="A496:XFD496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6847,7 +6841,7 @@
         <v>663</v>
       </c>
       <c r="B50" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -9229,7 +9223,7 @@
         <v>461</v>
       </c>
       <c r="I109" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J109" t="str">
         <f>VLOOKUP(I109,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9269,7 +9263,7 @@
         <v>461</v>
       </c>
       <c r="I110" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J110" t="str">
         <f>VLOOKUP(I110,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9309,7 +9303,7 @@
         <v>461</v>
       </c>
       <c r="I111" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J111" t="str">
         <f>VLOOKUP(I111,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9349,7 +9343,7 @@
         <v>461</v>
       </c>
       <c r="I112" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J112" t="str">
         <f>VLOOKUP(I112,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9389,7 +9383,7 @@
         <v>461</v>
       </c>
       <c r="I113" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J113" t="str">
         <f>VLOOKUP(I113,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9429,7 +9423,7 @@
         <v>461</v>
       </c>
       <c r="I114" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J114" t="str">
         <f>VLOOKUP(I114,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9469,7 +9463,7 @@
         <v>461</v>
       </c>
       <c r="I115" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J115" t="str">
         <f>VLOOKUP(I115,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9509,7 +9503,7 @@
         <v>461</v>
       </c>
       <c r="I116" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J116" t="str">
         <f>VLOOKUP(I116,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9549,7 +9543,7 @@
         <v>461</v>
       </c>
       <c r="I117" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J117" t="str">
         <f>VLOOKUP(I117,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9589,7 +9583,7 @@
         <v>461</v>
       </c>
       <c r="I118" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J118" t="str">
         <f>VLOOKUP(I118,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9629,7 +9623,7 @@
         <v>461</v>
       </c>
       <c r="I119" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J119" t="str">
         <f>VLOOKUP(I119,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9669,7 +9663,7 @@
         <v>461</v>
       </c>
       <c r="I120" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J120" t="str">
         <f>VLOOKUP(I120,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9709,7 +9703,7 @@
         <v>461</v>
       </c>
       <c r="I121" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J121" t="str">
         <f>VLOOKUP(I121,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9749,7 +9743,7 @@
         <v>461</v>
       </c>
       <c r="I122" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J122" t="str">
         <f>VLOOKUP(I122,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9789,7 +9783,7 @@
         <v>461</v>
       </c>
       <c r="I123" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J123" t="str">
         <f>VLOOKUP(I123,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9829,7 +9823,7 @@
         <v>178</v>
       </c>
       <c r="I124" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J124" t="str">
         <f>VLOOKUP(I124,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9869,7 +9863,7 @@
         <v>178</v>
       </c>
       <c r="I125" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J125" t="str">
         <f>VLOOKUP(I125,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9909,7 +9903,7 @@
         <v>178</v>
       </c>
       <c r="I126" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J126" t="str">
         <f>VLOOKUP(I126,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9949,7 +9943,7 @@
         <v>178</v>
       </c>
       <c r="I127" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J127" t="str">
         <f>VLOOKUP(I127,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -9989,7 +9983,7 @@
         <v>178</v>
       </c>
       <c r="I128" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J128" t="str">
         <f>VLOOKUP(I128,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10029,7 +10023,7 @@
         <v>178</v>
       </c>
       <c r="I129" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J129" t="str">
         <f>VLOOKUP(I129,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10069,7 +10063,7 @@
         <v>178</v>
       </c>
       <c r="I130" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J130" t="str">
         <f>VLOOKUP(I130,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10109,7 +10103,7 @@
         <v>160</v>
       </c>
       <c r="I131" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J131" t="str">
         <f>VLOOKUP(I131,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10149,7 +10143,7 @@
         <v>461</v>
       </c>
       <c r="I132" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J132" t="str">
         <f>VLOOKUP(I132,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10189,7 +10183,7 @@
         <v>461</v>
       </c>
       <c r="I133" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J133" t="str">
         <f>VLOOKUP(I133,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10229,7 +10223,7 @@
         <v>461</v>
       </c>
       <c r="I134" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J134" t="str">
         <f>VLOOKUP(I134,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10269,7 +10263,7 @@
         <v>461</v>
       </c>
       <c r="I135" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J135" t="str">
         <f>VLOOKUP(I135,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10309,7 +10303,7 @@
         <v>461</v>
       </c>
       <c r="I136" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J136" t="str">
         <f>VLOOKUP(I136,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10349,7 +10343,7 @@
         <v>178</v>
       </c>
       <c r="I137" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J137" t="str">
         <f>VLOOKUP(I137,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10389,7 +10383,7 @@
         <v>178</v>
       </c>
       <c r="I138" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J138" t="str">
         <f>VLOOKUP(I138,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10429,7 +10423,7 @@
         <v>178</v>
       </c>
       <c r="I139" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J139" t="str">
         <f>VLOOKUP(I139,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10469,7 +10463,7 @@
         <v>178</v>
       </c>
       <c r="I140" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J140" t="str">
         <f>VLOOKUP(I140,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10509,7 +10503,7 @@
         <v>178</v>
       </c>
       <c r="I141" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J141" t="str">
         <f>VLOOKUP(I141,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10549,7 +10543,7 @@
         <v>178</v>
       </c>
       <c r="I142" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J142" t="str">
         <f>VLOOKUP(I142,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10589,7 +10583,7 @@
         <v>178</v>
       </c>
       <c r="I143" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J143" t="str">
         <f>VLOOKUP(I143,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10607,7 +10601,7 @@
         <v>757</v>
       </c>
       <c r="B144" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
@@ -10629,7 +10623,7 @@
         <v>178</v>
       </c>
       <c r="I144" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J144" t="str">
         <f>VLOOKUP(I144,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10669,7 +10663,7 @@
         <v>178</v>
       </c>
       <c r="I145" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J145" t="str">
         <f>VLOOKUP(I145,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10709,7 +10703,7 @@
         <v>178</v>
       </c>
       <c r="I146" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J146" t="str">
         <f>VLOOKUP(I146,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10749,7 +10743,7 @@
         <v>178</v>
       </c>
       <c r="I147" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J147" t="str">
         <f>VLOOKUP(I147,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10789,7 +10783,7 @@
         <v>178</v>
       </c>
       <c r="I148" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J148" t="str">
         <f>VLOOKUP(I148,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10829,7 +10823,7 @@
         <v>178</v>
       </c>
       <c r="I149" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J149" t="str">
         <f>VLOOKUP(I149,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10869,7 +10863,7 @@
         <v>178</v>
       </c>
       <c r="I150" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J150" t="str">
         <f>VLOOKUP(I150,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10909,7 +10903,7 @@
         <v>178</v>
       </c>
       <c r="I151" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J151" t="str">
         <f>VLOOKUP(I151,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10949,7 +10943,7 @@
         <v>178</v>
       </c>
       <c r="I152" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J152" t="str">
         <f>VLOOKUP(I152,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -10989,7 +10983,7 @@
         <v>178</v>
       </c>
       <c r="I153" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J153" t="str">
         <f>VLOOKUP(I153,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11029,7 +11023,7 @@
         <v>178</v>
       </c>
       <c r="I154" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J154" t="str">
         <f>VLOOKUP(I154,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11069,7 +11063,7 @@
         <v>178</v>
       </c>
       <c r="I155" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J155" t="str">
         <f>VLOOKUP(I155,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11109,7 +11103,7 @@
         <v>18</v>
       </c>
       <c r="I156" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J156" t="str">
         <f>VLOOKUP(I156,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11149,7 +11143,7 @@
         <v>18</v>
       </c>
       <c r="I157" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J157" t="str">
         <f>VLOOKUP(I157,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11189,7 +11183,7 @@
         <v>461</v>
       </c>
       <c r="I158" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J158" t="str">
         <f>VLOOKUP(I158,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11229,7 +11223,7 @@
         <v>178</v>
       </c>
       <c r="I159" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J159" t="str">
         <f>VLOOKUP(I159,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11269,7 +11263,7 @@
         <v>178</v>
       </c>
       <c r="I160" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J160" t="str">
         <f>VLOOKUP(I160,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11309,7 +11303,7 @@
         <v>18</v>
       </c>
       <c r="I161" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J161" t="str">
         <f>VLOOKUP(I161,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11349,7 +11343,7 @@
         <v>18</v>
       </c>
       <c r="I162" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J162" t="str">
         <f>VLOOKUP(I162,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11389,7 +11383,7 @@
         <v>585</v>
       </c>
       <c r="I163" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J163" t="str">
         <f>VLOOKUP(I163,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11429,7 +11423,7 @@
         <v>585</v>
       </c>
       <c r="I164" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J164" t="str">
         <f>VLOOKUP(I164,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11469,7 +11463,7 @@
         <v>585</v>
       </c>
       <c r="I165" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="J165" t="str">
         <f>VLOOKUP(I165,Sheet1!$B$11:$C$17,2,FALSE)</f>
@@ -11647,7 +11641,7 @@
         <v>783</v>
       </c>
       <c r="B170" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
@@ -12527,7 +12521,7 @@
         <v>804</v>
       </c>
       <c r="B192" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
@@ -17727,7 +17721,7 @@
         <v>935</v>
       </c>
       <c r="B322" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C322" t="s">
         <v>25</v>
@@ -17887,7 +17881,7 @@
         <v>941</v>
       </c>
       <c r="B326" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
@@ -18447,7 +18441,7 @@
         <v>954</v>
       </c>
       <c r="B340" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C340" t="s">
         <v>25</v>
@@ -20127,7 +20121,7 @@
         <v>995</v>
       </c>
       <c r="B382" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -20567,7 +20561,7 @@
         <v>1006</v>
       </c>
       <c r="B393" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C393" t="s">
         <v>25</v>
@@ -20607,7 +20601,7 @@
         <v>1007</v>
       </c>
       <c r="B394" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C394" t="s">
         <v>25</v>
@@ -21076,7 +21070,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K405" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L405" t="s">
         <v>22</v>
@@ -21116,7 +21110,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K406" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L406" t="s">
         <v>22</v>
@@ -21156,7 +21150,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K407" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L407" t="s">
         <v>22</v>
@@ -21196,7 +21190,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K408" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L408" t="s">
         <v>22</v>
@@ -21236,7 +21230,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K409" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L409" t="s">
         <v>22</v>
@@ -21276,7 +21270,7 @@
         <v>7_Kedokteran</v>
       </c>
       <c r="K410" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L410" t="s">
         <v>22</v>
@@ -22167,7 +22161,7 @@
         <v>1046</v>
       </c>
       <c r="B433" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C433" t="s">
         <v>14</v>
@@ -22896,7 +22890,7 @@
         <v>15</v>
       </c>
       <c r="E451" t="str">
-        <f t="shared" ref="E451:E514" si="7">IF(D451="S3","1_S3",IF(D451="S2","2_S2"))</f>
+        <f t="shared" ref="E451:E513" si="7">IF(D451="S3","1_S3",IF(D451="S2","2_S2"))</f>
         <v>2_S2</v>
       </c>
       <c r="F451" t="s">
@@ -22927,7 +22921,7 @@
         <v>1065</v>
       </c>
       <c r="B452" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C452" t="s">
         <v>25</v>
@@ -23807,7 +23801,7 @@
         <v>1088</v>
       </c>
       <c r="B474" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C474" t="s">
         <v>14</v>
@@ -24244,10 +24238,10 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B485" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C485" t="s">
         <v>14</v>
@@ -24287,7 +24281,7 @@
         <v>1098</v>
       </c>
       <c r="B486" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C486" t="s">
         <v>14</v>
@@ -24327,7 +24321,7 @@
         <v>1099</v>
       </c>
       <c r="B487" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C487" t="s">
         <v>14</v>
@@ -24367,7 +24361,7 @@
         <v>1100</v>
       </c>
       <c r="B488" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
@@ -24407,7 +24401,7 @@
         <v>1101</v>
       </c>
       <c r="B489" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C489" t="s">
         <v>14</v>
@@ -24487,7 +24481,7 @@
         <v>1103</v>
       </c>
       <c r="B491" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C491" t="s">
         <v>14</v>
@@ -24527,7 +24521,7 @@
         <v>1104</v>
       </c>
       <c r="B492" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C492" t="s">
         <v>14</v>
@@ -24607,7 +24601,7 @@
         <v>1106</v>
       </c>
       <c r="B494" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C494" t="s">
         <v>14</v>
@@ -24687,20 +24681,20 @@
         <v>1108</v>
       </c>
       <c r="B496" t="s">
-        <v>1249</v>
+        <v>1325</v>
       </c>
       <c r="C496" t="s">
         <v>14</v>
       </c>
       <c r="D496" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E496" t="str">
         <f t="shared" si="7"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F496" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G496" t="s">
         <v>177</v>
@@ -24724,20 +24718,20 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B497" t="s">
-        <v>1327</v>
+        <v>1249</v>
       </c>
       <c r="C497" t="s">
         <v>14</v>
       </c>
       <c r="D497" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E497" t="str">
         <f t="shared" si="7"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F497" t="s">
         <v>50</v>
@@ -24767,7 +24761,7 @@
         <v>1111</v>
       </c>
       <c r="B498" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C498" t="s">
         <v>14</v>
@@ -24780,7 +24774,7 @@
         <v>2_S2</v>
       </c>
       <c r="F498" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G498" t="s">
         <v>177</v>
@@ -24807,7 +24801,7 @@
         <v>1112</v>
       </c>
       <c r="B499" t="s">
-        <v>1252</v>
+        <v>137</v>
       </c>
       <c r="C499" t="s">
         <v>14</v>
@@ -24820,13 +24814,13 @@
         <v>2_S2</v>
       </c>
       <c r="F499" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G499" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H499" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I499" t="s">
         <v>138</v>
@@ -24847,7 +24841,7 @@
         <v>1113</v>
       </c>
       <c r="B500" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C500" t="s">
         <v>14</v>
@@ -24887,10 +24881,10 @@
         <v>1114</v>
       </c>
       <c r="B501" t="s">
-        <v>141</v>
+        <v>1251</v>
       </c>
       <c r="C501" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D501" t="s">
         <v>15</v>
@@ -24927,10 +24921,10 @@
         <v>1115</v>
       </c>
       <c r="B502" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C502" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D502" t="s">
         <v>15</v>
@@ -24967,10 +24961,10 @@
         <v>1116</v>
       </c>
       <c r="B503" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C503" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D503" t="s">
         <v>15</v>
@@ -25007,10 +25001,10 @@
         <v>1117</v>
       </c>
       <c r="B504" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C504" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D504" t="s">
         <v>15</v>
@@ -25047,26 +25041,26 @@
         <v>1118</v>
       </c>
       <c r="B505" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C505" t="s">
         <v>14</v>
       </c>
       <c r="D505" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E505" t="str">
         <f t="shared" si="7"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F505" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="G505" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H505" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I505" t="s">
         <v>138</v>
@@ -25076,7 +25070,7 @@
         <v>3_Teknik</v>
       </c>
       <c r="K505" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L505" t="s">
         <v>22</v>
@@ -25087,10 +25081,10 @@
         <v>1119</v>
       </c>
       <c r="B506" t="s">
-        <v>1257</v>
+        <v>577</v>
       </c>
       <c r="C506" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D506" t="s">
         <v>54</v>
@@ -25100,13 +25094,13 @@
         <v>1_S3</v>
       </c>
       <c r="F506" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G506" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="H506" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="I506" t="s">
         <v>138</v>
@@ -25127,7 +25121,7 @@
         <v>1120</v>
       </c>
       <c r="B507" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C507" t="s">
         <v>25</v>
@@ -25140,7 +25134,7 @@
         <v>1_S3</v>
       </c>
       <c r="F507" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G507" t="s">
         <v>460</v>
@@ -25167,7 +25161,7 @@
         <v>1121</v>
       </c>
       <c r="B508" t="s">
-        <v>578</v>
+        <v>1256</v>
       </c>
       <c r="C508" t="s">
         <v>25</v>
@@ -25180,7 +25174,7 @@
         <v>1_S3</v>
       </c>
       <c r="F508" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G508" t="s">
         <v>460</v>
@@ -25207,17 +25201,17 @@
         <v>1122</v>
       </c>
       <c r="B509" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C509" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D509" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E509" t="str">
         <f t="shared" si="7"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F509" t="s">
         <v>121</v>
@@ -25247,20 +25241,20 @@
         <v>1123</v>
       </c>
       <c r="B510" t="s">
-        <v>1259</v>
+        <v>1326</v>
       </c>
       <c r="C510" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D510" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E510" t="str">
         <f t="shared" si="7"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F510" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G510" t="s">
         <v>460</v>
@@ -25287,10 +25281,10 @@
         <v>1124</v>
       </c>
       <c r="B511" t="s">
-        <v>1328</v>
+        <v>1258</v>
       </c>
       <c r="C511" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D511" t="s">
         <v>54</v>
@@ -25300,7 +25294,7 @@
         <v>1_S3</v>
       </c>
       <c r="F511" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G511" t="s">
         <v>460</v>
@@ -25327,10 +25321,10 @@
         <v>1125</v>
       </c>
       <c r="B512" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C512" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D512" t="s">
         <v>54</v>
@@ -25340,13 +25334,13 @@
         <v>1_S3</v>
       </c>
       <c r="F512" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G512" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="H512" t="s">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="I512" t="s">
         <v>138</v>
@@ -25367,17 +25361,17 @@
         <v>1126</v>
       </c>
       <c r="B513" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C513" t="s">
         <v>25</v>
       </c>
       <c r="D513" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E513" t="str">
         <f t="shared" si="7"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F513" t="s">
         <v>98</v>
@@ -25407,20 +25401,20 @@
         <v>1127</v>
       </c>
       <c r="B514" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C514" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D514" t="s">
         <v>15</v>
       </c>
       <c r="E514" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E514:E577" si="8">IF(D514="S3","1_S3",IF(D514="S2","2_S2"))</f>
         <v>2_S2</v>
       </c>
       <c r="F514" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G514" t="s">
         <v>177</v>
@@ -25447,20 +25441,20 @@
         <v>1128</v>
       </c>
       <c r="B515" t="s">
-        <v>1263</v>
+        <v>1327</v>
       </c>
       <c r="C515" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D515" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E515" t="str">
-        <f t="shared" ref="E515:E578" si="8">IF(D515="S3","1_S3",IF(D515="S2","2_S2"))</f>
-        <v>2_S2</v>
+        <f t="shared" si="8"/>
+        <v>1_S3</v>
       </c>
       <c r="F515" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G515" t="s">
         <v>177</v>
@@ -25487,17 +25481,17 @@
         <v>1129</v>
       </c>
       <c r="B516" t="s">
-        <v>1329</v>
+        <v>1262</v>
       </c>
       <c r="C516" t="s">
         <v>25</v>
       </c>
       <c r="D516" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E516" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F516" t="s">
         <v>98</v>
@@ -25527,7 +25521,7 @@
         <v>1130</v>
       </c>
       <c r="B517" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C517" t="s">
         <v>25</v>
@@ -25540,7 +25534,7 @@
         <v>2_S2</v>
       </c>
       <c r="F517" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G517" t="s">
         <v>177</v>
@@ -25567,17 +25561,17 @@
         <v>1131</v>
       </c>
       <c r="B518" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C518" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D518" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E518" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F518" t="s">
         <v>50</v>
@@ -25607,20 +25601,20 @@
         <v>1132</v>
       </c>
       <c r="B519" t="s">
-        <v>1266</v>
+        <v>426</v>
       </c>
       <c r="C519" t="s">
         <v>14</v>
       </c>
       <c r="D519" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E519" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F519" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G519" t="s">
         <v>177</v>
@@ -25647,10 +25641,10 @@
         <v>1133</v>
       </c>
       <c r="B520" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C520" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D520" t="s">
         <v>15</v>
@@ -25660,7 +25654,7 @@
         <v>2_S2</v>
       </c>
       <c r="F520" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G520" t="s">
         <v>177</v>
@@ -25687,10 +25681,10 @@
         <v>1134</v>
       </c>
       <c r="B521" t="s">
-        <v>427</v>
+        <v>1265</v>
       </c>
       <c r="C521" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D521" t="s">
         <v>15</v>
@@ -25727,17 +25721,17 @@
         <v>1135</v>
       </c>
       <c r="B522" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C522" t="s">
         <v>14</v>
       </c>
       <c r="D522" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E522" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F522" t="s">
         <v>50</v>
@@ -25767,20 +25761,20 @@
         <v>1136</v>
       </c>
       <c r="B523" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C523" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D523" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E523" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F523" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G523" t="s">
         <v>177</v>
@@ -25807,10 +25801,10 @@
         <v>1137</v>
       </c>
       <c r="B524" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C524" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D524" t="s">
         <v>15</v>
@@ -25847,10 +25841,10 @@
         <v>1138</v>
       </c>
       <c r="B525" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C525" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D525" t="s">
         <v>15</v>
@@ -25860,7 +25854,7 @@
         <v>2_S2</v>
       </c>
       <c r="F525" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G525" t="s">
         <v>177</v>
@@ -25887,10 +25881,10 @@
         <v>1139</v>
       </c>
       <c r="B526" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C526" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D526" t="s">
         <v>15</v>
@@ -25927,7 +25921,7 @@
         <v>1140</v>
       </c>
       <c r="B527" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C527" t="s">
         <v>14</v>
@@ -25967,10 +25961,10 @@
         <v>1141</v>
       </c>
       <c r="B528" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C528" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D528" t="s">
         <v>15</v>
@@ -26007,7 +26001,7 @@
         <v>1142</v>
       </c>
       <c r="B529" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C529" t="s">
         <v>25</v>
@@ -26047,7 +26041,7 @@
         <v>1143</v>
       </c>
       <c r="B530" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C530" t="s">
         <v>25</v>
@@ -26087,7 +26081,7 @@
         <v>1144</v>
       </c>
       <c r="B531" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C531" t="s">
         <v>25</v>
@@ -26100,13 +26094,13 @@
         <v>2_S2</v>
       </c>
       <c r="F531" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G531" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H531" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I531" t="s">
         <v>138</v>
@@ -26127,26 +26121,26 @@
         <v>1145</v>
       </c>
       <c r="B532" t="s">
-        <v>1277</v>
+        <v>173</v>
       </c>
       <c r="C532" t="s">
         <v>25</v>
       </c>
       <c r="D532" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E532" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F532" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="G532" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="H532" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="I532" t="s">
         <v>138</v>
@@ -26156,7 +26150,7 @@
         <v>3_Teknik</v>
       </c>
       <c r="K532" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L532" t="s">
         <v>22</v>
@@ -26167,10 +26161,10 @@
         <v>1146</v>
       </c>
       <c r="B533" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C533" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D533" t="s">
         <v>54</v>
@@ -26180,7 +26174,7 @@
         <v>1_S3</v>
       </c>
       <c r="F533" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="G533" t="s">
         <v>159</v>
@@ -26207,7 +26201,7 @@
         <v>1147</v>
       </c>
       <c r="B534" t="s">
-        <v>174</v>
+        <v>579</v>
       </c>
       <c r="C534" t="s">
         <v>14</v>
@@ -26220,13 +26214,13 @@
         <v>1_S3</v>
       </c>
       <c r="F534" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="G534" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="H534" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="I534" t="s">
         <v>138</v>
@@ -26247,10 +26241,10 @@
         <v>1148</v>
       </c>
       <c r="B535" t="s">
-        <v>579</v>
+        <v>1276</v>
       </c>
       <c r="C535" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D535" t="s">
         <v>54</v>
@@ -26260,7 +26254,7 @@
         <v>1_S3</v>
       </c>
       <c r="F535" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="G535" t="s">
         <v>460</v>
@@ -26287,7 +26281,7 @@
         <v>1149</v>
       </c>
       <c r="B536" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C536" t="s">
         <v>25</v>
@@ -26327,10 +26321,10 @@
         <v>1150</v>
       </c>
       <c r="B537" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C537" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D537" t="s">
         <v>54</v>
@@ -26367,26 +26361,26 @@
         <v>1151</v>
       </c>
       <c r="B538" t="s">
-        <v>1280</v>
+        <v>428</v>
       </c>
       <c r="C538" t="s">
         <v>14</v>
       </c>
       <c r="D538" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E538" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F538" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G538" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="H538" t="s">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="I538" t="s">
         <v>138</v>
@@ -26407,7 +26401,7 @@
         <v>1152</v>
       </c>
       <c r="B539" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -26420,7 +26414,7 @@
         <v>2_S2</v>
       </c>
       <c r="F539" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G539" t="s">
         <v>177</v>
@@ -26447,7 +26441,7 @@
         <v>1153</v>
       </c>
       <c r="B540" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C540" t="s">
         <v>14</v>
@@ -26487,7 +26481,7 @@
         <v>1154</v>
       </c>
       <c r="B541" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C541" t="s">
         <v>14</v>
@@ -26527,17 +26521,17 @@
         <v>1155</v>
       </c>
       <c r="B542" t="s">
-        <v>431</v>
+        <v>1279</v>
       </c>
       <c r="C542" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D542" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E542" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F542" t="s">
         <v>50</v>
@@ -26567,7 +26561,7 @@
         <v>1156</v>
       </c>
       <c r="B543" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C543" t="s">
         <v>25</v>
@@ -26580,7 +26574,7 @@
         <v>1_S3</v>
       </c>
       <c r="F543" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G543" t="s">
         <v>177</v>
@@ -26607,10 +26601,10 @@
         <v>1157</v>
       </c>
       <c r="B544" t="s">
-        <v>1282</v>
+        <v>453</v>
       </c>
       <c r="C544" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D544" t="s">
         <v>54</v>
@@ -26620,7 +26614,7 @@
         <v>1_S3</v>
       </c>
       <c r="F544" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G544" t="s">
         <v>177</v>
@@ -26647,7 +26641,7 @@
         <v>1158</v>
       </c>
       <c r="B545" t="s">
-        <v>453</v>
+        <v>1281</v>
       </c>
       <c r="C545" t="s">
         <v>14</v>
@@ -26660,7 +26654,7 @@
         <v>1_S3</v>
       </c>
       <c r="F545" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G545" t="s">
         <v>177</v>
@@ -26687,20 +26681,20 @@
         <v>1159</v>
       </c>
       <c r="B546" t="s">
-        <v>1283</v>
+        <v>432</v>
       </c>
       <c r="C546" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D546" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E546" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F546" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G546" t="s">
         <v>177</v>
@@ -26727,10 +26721,10 @@
         <v>1160</v>
       </c>
       <c r="B547" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C547" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D547" t="s">
         <v>15</v>
@@ -26740,7 +26734,7 @@
         <v>2_S2</v>
       </c>
       <c r="F547" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G547" t="s">
         <v>177</v>
@@ -26767,20 +26761,20 @@
         <v>1161</v>
       </c>
       <c r="B548" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="C548" t="s">
         <v>14</v>
       </c>
       <c r="D548" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E548" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F548" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G548" t="s">
         <v>177</v>
@@ -26807,10 +26801,10 @@
         <v>1162</v>
       </c>
       <c r="B549" t="s">
-        <v>454</v>
+        <v>1282</v>
       </c>
       <c r="C549" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D549" t="s">
         <v>54</v>
@@ -26847,7 +26841,7 @@
         <v>1163</v>
       </c>
       <c r="B550" t="s">
-        <v>1284</v>
+        <v>455</v>
       </c>
       <c r="C550" t="s">
         <v>25</v>
@@ -26860,7 +26854,7 @@
         <v>1_S3</v>
       </c>
       <c r="F550" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G550" t="s">
         <v>177</v>
@@ -26887,17 +26881,17 @@
         <v>1164</v>
       </c>
       <c r="B551" t="s">
-        <v>455</v>
+        <v>1283</v>
       </c>
       <c r="C551" t="s">
         <v>25</v>
       </c>
       <c r="D551" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E551" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F551" t="s">
         <v>16</v>
@@ -26927,7 +26921,7 @@
         <v>1165</v>
       </c>
       <c r="B552" t="s">
-        <v>1285</v>
+        <v>434</v>
       </c>
       <c r="C552" t="s">
         <v>25</v>
@@ -26940,7 +26934,7 @@
         <v>2_S2</v>
       </c>
       <c r="F552" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G552" t="s">
         <v>177</v>
@@ -26967,7 +26961,7 @@
         <v>1166</v>
       </c>
       <c r="B553" t="s">
-        <v>434</v>
+        <v>1284</v>
       </c>
       <c r="C553" t="s">
         <v>25</v>
@@ -26980,7 +26974,7 @@
         <v>2_S2</v>
       </c>
       <c r="F553" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G553" t="s">
         <v>177</v>
@@ -27007,20 +27001,20 @@
         <v>1167</v>
       </c>
       <c r="B554" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C554" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D554" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E554" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F554" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G554" t="s">
         <v>177</v>
@@ -27047,20 +27041,20 @@
         <v>1168</v>
       </c>
       <c r="B555" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C555" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D555" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E555" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F555" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G555" t="s">
         <v>177</v>
@@ -27087,7 +27081,7 @@
         <v>1169</v>
       </c>
       <c r="B556" t="s">
-        <v>1288</v>
+        <v>435</v>
       </c>
       <c r="C556" t="s">
         <v>25</v>
@@ -27100,7 +27094,7 @@
         <v>2_S2</v>
       </c>
       <c r="F556" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G556" t="s">
         <v>177</v>
@@ -27127,10 +27121,10 @@
         <v>1170</v>
       </c>
       <c r="B557" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C557" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D557" t="s">
         <v>15</v>
@@ -27167,7 +27161,7 @@
         <v>1171</v>
       </c>
       <c r="B558" t="s">
-        <v>436</v>
+        <v>1287</v>
       </c>
       <c r="C558" t="s">
         <v>14</v>
@@ -27180,13 +27174,13 @@
         <v>2_S2</v>
       </c>
       <c r="F558" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G558" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H558" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I558" t="s">
         <v>138</v>
@@ -27207,20 +27201,20 @@
         <v>1172</v>
       </c>
       <c r="B559" t="s">
-        <v>1289</v>
+        <v>156</v>
       </c>
       <c r="C559" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D559" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E559" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F559" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G559" t="s">
         <v>17</v>
@@ -27247,17 +27241,17 @@
         <v>1173</v>
       </c>
       <c r="B560" t="s">
-        <v>156</v>
+        <v>1288</v>
       </c>
       <c r="C560" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D560" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E560" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F560" t="s">
         <v>16</v>
@@ -27287,7 +27281,7 @@
         <v>1174</v>
       </c>
       <c r="B561" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -27327,26 +27321,26 @@
         <v>1175</v>
       </c>
       <c r="B562" t="s">
-        <v>1291</v>
+        <v>580</v>
       </c>
       <c r="C562" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D562" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E562" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F562" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G562" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="H562" t="s">
-        <v>18</v>
+        <v>461</v>
       </c>
       <c r="I562" t="s">
         <v>138</v>
@@ -27356,7 +27350,7 @@
         <v>3_Teknik</v>
       </c>
       <c r="K562" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L562" t="s">
         <v>22</v>
@@ -27367,7 +27361,7 @@
         <v>1176</v>
       </c>
       <c r="B563" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C563" t="s">
         <v>25</v>
@@ -27380,7 +27374,7 @@
         <v>1_S3</v>
       </c>
       <c r="F563" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="G563" t="s">
         <v>460</v>
@@ -27407,20 +27401,20 @@
         <v>1177</v>
       </c>
       <c r="B564" t="s">
-        <v>581</v>
+        <v>1290</v>
       </c>
       <c r="C564" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D564" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E564" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F564" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G564" t="s">
         <v>460</v>
@@ -27447,10 +27441,10 @@
         <v>1178</v>
       </c>
       <c r="B565" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C565" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D565" t="s">
         <v>15</v>
@@ -27460,13 +27454,13 @@
         <v>2_S2</v>
       </c>
       <c r="F565" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G565" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="H565" t="s">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="I565" t="s">
         <v>138</v>
@@ -27487,17 +27481,17 @@
         <v>1179</v>
       </c>
       <c r="B566" t="s">
-        <v>1293</v>
+        <v>456</v>
       </c>
       <c r="C566" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D566" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E566" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F566" t="s">
         <v>50</v>
@@ -27527,17 +27521,17 @@
         <v>1180</v>
       </c>
       <c r="B567" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C567" t="s">
         <v>14</v>
       </c>
       <c r="D567" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E567" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F567" t="s">
         <v>50</v>
@@ -27567,20 +27561,20 @@
         <v>1181</v>
       </c>
       <c r="B568" t="s">
-        <v>437</v>
+        <v>1292</v>
       </c>
       <c r="C568" t="s">
         <v>14</v>
       </c>
       <c r="D568" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E568" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F568" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G568" t="s">
         <v>177</v>
@@ -27607,20 +27601,20 @@
         <v>1182</v>
       </c>
       <c r="B569" t="s">
-        <v>1294</v>
+        <v>438</v>
       </c>
       <c r="C569" t="s">
         <v>14</v>
       </c>
       <c r="D569" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E569" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F569" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G569" t="s">
         <v>177</v>
@@ -27647,7 +27641,7 @@
         <v>1183</v>
       </c>
       <c r="B570" t="s">
-        <v>438</v>
+        <v>1293</v>
       </c>
       <c r="C570" t="s">
         <v>14</v>
@@ -27687,17 +27681,17 @@
         <v>1184</v>
       </c>
       <c r="B571" t="s">
-        <v>1295</v>
+        <v>457</v>
       </c>
       <c r="C571" t="s">
         <v>14</v>
       </c>
       <c r="D571" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E571" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F571" t="s">
         <v>50</v>
@@ -27727,20 +27721,20 @@
         <v>1185</v>
       </c>
       <c r="B572" t="s">
-        <v>457</v>
+        <v>1294</v>
       </c>
       <c r="C572" t="s">
         <v>14</v>
       </c>
       <c r="D572" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E572" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F572" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G572" t="s">
         <v>177</v>
@@ -27767,7 +27761,7 @@
         <v>1186</v>
       </c>
       <c r="B573" t="s">
-        <v>1296</v>
+        <v>439</v>
       </c>
       <c r="C573" t="s">
         <v>14</v>
@@ -27780,7 +27774,7 @@
         <v>2_S2</v>
       </c>
       <c r="F573" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G573" t="s">
         <v>177</v>
@@ -27807,17 +27801,17 @@
         <v>1187</v>
       </c>
       <c r="B574" t="s">
-        <v>439</v>
+        <v>1295</v>
       </c>
       <c r="C574" t="s">
         <v>14</v>
       </c>
       <c r="D574" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E574" t="str">
         <f t="shared" si="8"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F574" t="s">
         <v>50</v>
@@ -27847,17 +27841,17 @@
         <v>1188</v>
       </c>
       <c r="B575" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C575" t="s">
         <v>14</v>
       </c>
       <c r="D575" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E575" t="str">
         <f t="shared" si="8"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F575" t="s">
         <v>50</v>
@@ -27887,7 +27881,7 @@
         <v>1189</v>
       </c>
       <c r="B576" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C576" t="s">
         <v>14</v>
@@ -27927,7 +27921,7 @@
         <v>1190</v>
       </c>
       <c r="B577" t="s">
-        <v>1299</v>
+        <v>440</v>
       </c>
       <c r="C577" t="s">
         <v>14</v>
@@ -27940,7 +27934,7 @@
         <v>2_S2</v>
       </c>
       <c r="F577" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G577" t="s">
         <v>177</v>
@@ -27967,7 +27961,7 @@
         <v>1191</v>
       </c>
       <c r="B578" t="s">
-        <v>440</v>
+        <v>1298</v>
       </c>
       <c r="C578" t="s">
         <v>14</v>
@@ -27976,17 +27970,17 @@
         <v>15</v>
       </c>
       <c r="E578" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E578:E619" si="9">IF(D578="S3","1_S3",IF(D578="S2","2_S2"))</f>
         <v>2_S2</v>
       </c>
       <c r="F578" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G578" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H578" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I578" t="s">
         <v>138</v>
@@ -28007,20 +28001,20 @@
         <v>1192</v>
       </c>
       <c r="B579" t="s">
-        <v>1300</v>
+        <v>145</v>
       </c>
       <c r="C579" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D579" t="s">
         <v>15</v>
       </c>
       <c r="E579" t="str">
-        <f t="shared" ref="E579:E620" si="9">IF(D579="S3","1_S3",IF(D579="S2","2_S2"))</f>
+        <f t="shared" si="9"/>
         <v>2_S2</v>
       </c>
       <c r="F579" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G579" t="s">
         <v>17</v>
@@ -28047,10 +28041,10 @@
         <v>1193</v>
       </c>
       <c r="B580" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C580" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D580" t="s">
         <v>15</v>
@@ -28087,7 +28081,7 @@
         <v>1194</v>
       </c>
       <c r="B581" t="s">
-        <v>146</v>
+        <v>1299</v>
       </c>
       <c r="C581" t="s">
         <v>14</v>
@@ -28127,26 +28121,26 @@
         <v>1195</v>
       </c>
       <c r="B582" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C582" t="s">
         <v>14</v>
       </c>
       <c r="D582" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E582" t="str">
         <f t="shared" si="9"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F582" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G582" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="H582" t="s">
-        <v>18</v>
+        <v>461</v>
       </c>
       <c r="I582" t="s">
         <v>138</v>
@@ -28167,7 +28161,7 @@
         <v>1196</v>
       </c>
       <c r="B583" t="s">
-        <v>1302</v>
+        <v>175</v>
       </c>
       <c r="C583" t="s">
         <v>14</v>
@@ -28180,13 +28174,13 @@
         <v>1_S3</v>
       </c>
       <c r="F583" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G583" t="s">
-        <v>460</v>
+        <v>159</v>
       </c>
       <c r="H583" t="s">
-        <v>461</v>
+        <v>160</v>
       </c>
       <c r="I583" t="s">
         <v>138</v>
@@ -28196,7 +28190,7 @@
         <v>3_Teknik</v>
       </c>
       <c r="K583" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L583" t="s">
         <v>22</v>
@@ -28204,10 +28198,10 @@
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B584" t="s">
-        <v>175</v>
+        <v>1328</v>
       </c>
       <c r="C584" t="s">
         <v>14</v>
@@ -28244,29 +28238,29 @@
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="B585" t="s">
-        <v>1330</v>
+        <v>571</v>
       </c>
       <c r="C585" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D585" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E585" t="str">
         <f t="shared" si="9"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F585" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G585" t="s">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="H585" t="s">
-        <v>160</v>
+        <v>461</v>
       </c>
       <c r="I585" t="s">
         <v>138</v>
@@ -28287,20 +28281,20 @@
         <v>1198</v>
       </c>
       <c r="B586" t="s">
-        <v>571</v>
+        <v>1301</v>
       </c>
       <c r="C586" t="s">
         <v>25</v>
       </c>
       <c r="D586" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E586" t="str">
         <f t="shared" si="9"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F586" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="G586" t="s">
         <v>460</v>
@@ -28324,13 +28318,13 @@
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B587" t="s">
-        <v>1303</v>
+        <v>582</v>
       </c>
       <c r="C587" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D587" t="s">
         <v>54</v>
@@ -28340,7 +28334,7 @@
         <v>1_S3</v>
       </c>
       <c r="F587" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="G587" t="s">
         <v>460</v>
@@ -28367,7 +28361,7 @@
         <v>1201</v>
       </c>
       <c r="B588" t="s">
-        <v>582</v>
+        <v>458</v>
       </c>
       <c r="C588" t="s">
         <v>14</v>
@@ -28380,7 +28374,7 @@
         <v>1_S3</v>
       </c>
       <c r="F588" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G588" t="s">
         <v>460</v>
@@ -28404,13 +28398,13 @@
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="B589" t="s">
-        <v>458</v>
+        <v>1304</v>
       </c>
       <c r="C589" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D589" t="s">
         <v>54</v>
@@ -28444,29 +28438,29 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B590" t="s">
-        <v>1306</v>
+        <v>441</v>
       </c>
       <c r="C590" t="s">
         <v>25</v>
       </c>
       <c r="D590" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E590" t="str">
         <f t="shared" si="9"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F590" t="s">
         <v>50</v>
       </c>
       <c r="G590" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="H590" t="s">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="I590" t="s">
         <v>138</v>
@@ -28487,10 +28481,10 @@
         <v>1203</v>
       </c>
       <c r="B591" t="s">
-        <v>441</v>
+        <v>1302</v>
       </c>
       <c r="C591" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D591" t="s">
         <v>15</v>
@@ -28527,10 +28521,10 @@
         <v>1204</v>
       </c>
       <c r="B592" t="s">
-        <v>1304</v>
+        <v>442</v>
       </c>
       <c r="C592" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D592" t="s">
         <v>15</v>
@@ -28567,10 +28561,10 @@
         <v>1205</v>
       </c>
       <c r="B593" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C593" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D593" t="s">
         <v>15</v>
@@ -28607,7 +28601,7 @@
         <v>1206</v>
       </c>
       <c r="B594" t="s">
-        <v>443</v>
+        <v>1303</v>
       </c>
       <c r="C594" t="s">
         <v>14</v>
@@ -28644,7 +28638,7 @@
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B595" t="s">
         <v>1305</v>
@@ -28687,10 +28681,10 @@
         <v>1209</v>
       </c>
       <c r="B596" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C596" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D596" t="s">
         <v>15</v>
@@ -28727,7 +28721,7 @@
         <v>1210</v>
       </c>
       <c r="B597" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C597" t="s">
         <v>25</v>
@@ -28740,7 +28734,7 @@
         <v>2_S2</v>
       </c>
       <c r="F597" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G597" t="s">
         <v>177</v>
@@ -28767,7 +28761,7 @@
         <v>1211</v>
       </c>
       <c r="B598" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C598" t="s">
         <v>25</v>
@@ -28780,7 +28774,7 @@
         <v>2_S2</v>
       </c>
       <c r="F598" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="G598" t="s">
         <v>177</v>
@@ -28807,7 +28801,7 @@
         <v>1212</v>
       </c>
       <c r="B599" t="s">
-        <v>1310</v>
+        <v>147</v>
       </c>
       <c r="C599" t="s">
         <v>25</v>
@@ -28823,10 +28817,10 @@
         <v>16</v>
       </c>
       <c r="G599" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H599" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I599" t="s">
         <v>138</v>
@@ -28847,7 +28841,7 @@
         <v>1213</v>
       </c>
       <c r="B600" t="s">
-        <v>147</v>
+        <v>1309</v>
       </c>
       <c r="C600" t="s">
         <v>25</v>
@@ -28887,10 +28881,10 @@
         <v>1214</v>
       </c>
       <c r="B601" t="s">
-        <v>1311</v>
+        <v>149</v>
       </c>
       <c r="C601" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D601" t="s">
         <v>15</v>
@@ -28927,7 +28921,7 @@
         <v>1215</v>
       </c>
       <c r="B602" t="s">
-        <v>149</v>
+        <v>572</v>
       </c>
       <c r="C602" t="s">
         <v>14</v>
@@ -28940,13 +28934,13 @@
         <v>2_S2</v>
       </c>
       <c r="F602" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G602" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
       <c r="H602" t="s">
-        <v>18</v>
+        <v>461</v>
       </c>
       <c r="I602" t="s">
         <v>138</v>
@@ -28956,7 +28950,7 @@
         <v>3_Teknik</v>
       </c>
       <c r="K602" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L602" t="s">
         <v>22</v>
@@ -28967,7 +28961,7 @@
         <v>1216</v>
       </c>
       <c r="B603" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C603" t="s">
         <v>14</v>
@@ -29007,7 +29001,7 @@
         <v>1217</v>
       </c>
       <c r="B604" t="s">
-        <v>573</v>
+        <v>444</v>
       </c>
       <c r="C604" t="s">
         <v>14</v>
@@ -29020,13 +29014,13 @@
         <v>2_S2</v>
       </c>
       <c r="F604" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G604" t="s">
-        <v>460</v>
+        <v>177</v>
       </c>
       <c r="H604" t="s">
-        <v>461</v>
+        <v>178</v>
       </c>
       <c r="I604" t="s">
         <v>138</v>
@@ -29047,7 +29041,7 @@
         <v>1218</v>
       </c>
       <c r="B605" t="s">
-        <v>444</v>
+        <v>1310</v>
       </c>
       <c r="C605" t="s">
         <v>14</v>
@@ -29087,10 +29081,10 @@
         <v>1219</v>
       </c>
       <c r="B606" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C606" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D606" t="s">
         <v>15</v>
@@ -29127,20 +29121,20 @@
         <v>1220</v>
       </c>
       <c r="B607" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C607" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D607" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E607" t="str">
         <f t="shared" si="9"/>
-        <v>2_S2</v>
+        <v>1_S3</v>
       </c>
       <c r="F607" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G607" t="s">
         <v>177</v>
@@ -29167,20 +29161,20 @@
         <v>1221</v>
       </c>
       <c r="B608" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C608" t="s">
         <v>14</v>
       </c>
       <c r="D608" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E608" t="str">
         <f t="shared" si="9"/>
-        <v>1_S3</v>
+        <v>2_S2</v>
       </c>
       <c r="F608" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G608" t="s">
         <v>177</v>
@@ -29207,7 +29201,7 @@
         <v>1222</v>
       </c>
       <c r="B609" t="s">
-        <v>1315</v>
+        <v>445</v>
       </c>
       <c r="C609" t="s">
         <v>14</v>
@@ -29220,7 +29214,7 @@
         <v>2_S2</v>
       </c>
       <c r="F609" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G609" t="s">
         <v>177</v>
@@ -29247,7 +29241,7 @@
         <v>1223</v>
       </c>
       <c r="B610" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C610" t="s">
         <v>14</v>
@@ -29260,7 +29254,7 @@
         <v>2_S2</v>
       </c>
       <c r="F610" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G610" t="s">
         <v>177</v>
@@ -29287,7 +29281,7 @@
         <v>1224</v>
       </c>
       <c r="B611" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C611" t="s">
         <v>14</v>
@@ -29327,10 +29321,10 @@
         <v>1225</v>
       </c>
       <c r="B612" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C612" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D612" t="s">
         <v>15</v>
@@ -29340,7 +29334,7 @@
         <v>2_S2</v>
       </c>
       <c r="F612" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G612" t="s">
         <v>177</v>
@@ -29367,7 +29361,7 @@
         <v>1226</v>
       </c>
       <c r="B613" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C613" t="s">
         <v>25</v>
@@ -29380,7 +29374,7 @@
         <v>2_S2</v>
       </c>
       <c r="F613" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G613" t="s">
         <v>177</v>
@@ -29407,7 +29401,7 @@
         <v>1227</v>
       </c>
       <c r="B614" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C614" t="s">
         <v>25</v>
@@ -29447,7 +29441,7 @@
         <v>1228</v>
       </c>
       <c r="B615" t="s">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="C615" t="s">
         <v>25</v>
@@ -29460,7 +29454,7 @@
         <v>2_S2</v>
       </c>
       <c r="F615" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G615" t="s">
         <v>177</v>
@@ -29484,13 +29478,13 @@
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B616" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C616" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D616" t="s">
         <v>15</v>
@@ -29524,10 +29518,10 @@
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B617" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C617" t="s">
         <v>14</v>
@@ -29543,10 +29537,10 @@
         <v>16</v>
       </c>
       <c r="G617" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H617" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I617" t="s">
         <v>138</v>
@@ -29564,13 +29558,13 @@
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B618" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C618" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D618" t="s">
         <v>15</v>
@@ -29607,7 +29601,7 @@
         <v>1232</v>
       </c>
       <c r="B619" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C619" t="s">
         <v>25</v>
@@ -29642,48 +29636,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A620" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B620" t="s">
-        <v>155</v>
-      </c>
-      <c r="C620" t="s">
-        <v>25</v>
-      </c>
-      <c r="D620" t="s">
-        <v>15</v>
-      </c>
-      <c r="E620" t="str">
-        <f t="shared" si="9"/>
-        <v>2_S2</v>
-      </c>
-      <c r="F620" t="s">
-        <v>16</v>
-      </c>
-      <c r="G620" t="s">
-        <v>17</v>
-      </c>
-      <c r="H620" t="s">
-        <v>18</v>
-      </c>
-      <c r="I620" t="s">
-        <v>138</v>
-      </c>
-      <c r="J620" t="str">
-        <f>VLOOKUP(I620,Sheet1!$B$11:$C$17,2,FALSE)</f>
-        <v>3_Teknik</v>
-      </c>
-      <c r="K620" t="s">
-        <v>151</v>
-      </c>
-      <c r="L620" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M620" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M619" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29704,7 +29658,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -29715,7 +29669,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C3" t="s">
         <v>460</v>
@@ -29737,7 +29691,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -29748,7 +29702,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C6" t="s">
         <v>584</v>
@@ -29814,10 +29768,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C16" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -29828,7 +29782,7 @@
         <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D17">
         <v>7</v>
